--- a/capiq_data/in_process_data/IQ271305.xlsx
+++ b/capiq_data/in_process_data/IQ271305.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966CA9F8-A18F-43D4-BC13-FAEFA832F9D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92899C-2EBC-44D5-896F-0F66B37AC534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d6b5f2e0-0fb7-4fa6-ad56-f6e61ee522b4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"492dd784-8431-4a28-8fbc-45d65999dc2b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>32.816000000000003</v>
+        <v>13.888999999999999</v>
       </c>
       <c r="D2">
-        <v>137.88800000000001</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="E2">
-        <v>68.997</v>
+        <v>13.092000000000001</v>
       </c>
       <c r="F2">
-        <v>100.869</v>
+        <v>57.567</v>
       </c>
       <c r="G2">
-        <v>184.78</v>
+        <v>24.449000000000002</v>
       </c>
       <c r="H2">
-        <v>3159.5529999999999</v>
+        <v>1621.079</v>
       </c>
       <c r="I2">
-        <v>79.174000000000007</v>
+        <v>36.81</v>
       </c>
       <c r="J2">
-        <v>1630.2090000000001</v>
+        <v>887.83500000000004</v>
       </c>
       <c r="K2">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>221.17500000000001</v>
+        <v>81.701999999999998</v>
       </c>
       <c r="O2">
-        <v>1978.423</v>
+        <v>1105.5039999999999</v>
       </c>
       <c r="P2">
-        <v>1767.1489999999999</v>
+        <v>1034.4459999999999</v>
       </c>
       <c r="Q2">
-        <v>6.6230000000000002</v>
+        <v>-2.3690000000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="T2">
-        <v>1181.1300000000001</v>
+        <v>515.57500000000005</v>
       </c>
       <c r="U2">
-        <v>15.797000000000001</v>
+        <v>11.356999999999999</v>
       </c>
       <c r="V2">
-        <v>77.05</v>
+        <v>21.395</v>
       </c>
       <c r="W2">
-        <v>-41.296999999999997</v>
+        <v>-19.911000000000001</v>
       </c>
       <c r="X2">
-        <v>5.3559999999999999</v>
+        <v>25.765000000000001</v>
       </c>
       <c r="Y2">
-        <v>59.94</v>
+        <v>121.611</v>
       </c>
       <c r="Z2">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>32.816000000000003</v>
+        <v>13.888999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>31.186</v>
+        <v>14.233000000000001</v>
       </c>
       <c r="D3">
-        <v>137.97200000000001</v>
+        <v>71.391000000000005</v>
       </c>
       <c r="E3">
-        <v>71.408000000000001</v>
+        <v>13.214</v>
       </c>
       <c r="F3">
-        <v>93.162999999999997</v>
+        <v>56.362000000000002</v>
       </c>
       <c r="G3">
-        <v>187.041</v>
+        <v>24.356999999999999</v>
       </c>
       <c r="H3">
-        <v>3217.4609999999998</v>
+        <v>1675.692</v>
       </c>
       <c r="I3">
-        <v>80.537000000000006</v>
+        <v>52.402000000000001</v>
       </c>
       <c r="J3">
-        <v>1551.796</v>
+        <v>989.83100000000002</v>
       </c>
       <c r="K3">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-120.29900000000001</v>
+        <v>-0.312</v>
       </c>
       <c r="N3">
-        <v>316.30599999999998</v>
+        <v>72.340999999999994</v>
       </c>
       <c r="O3">
-        <v>1995.7919999999999</v>
+        <v>1176.327</v>
       </c>
       <c r="P3">
-        <v>1804.0550000000001</v>
+        <v>1089.9690000000001</v>
       </c>
       <c r="Q3">
-        <v>-5.7960000000000003</v>
+        <v>-0.214</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1221.6690000000001</v>
+        <v>499.36500000000001</v>
       </c>
       <c r="U3">
-        <v>10.000999999999999</v>
+        <v>11.143000000000001</v>
       </c>
       <c r="V3">
-        <v>45.999000000000002</v>
+        <v>29.896000000000001</v>
       </c>
       <c r="W3">
-        <v>-41.357999999999997</v>
+        <v>-19.933</v>
       </c>
       <c r="X3">
-        <v>1.113</v>
+        <v>57.179000000000002</v>
       </c>
       <c r="Y3">
-        <v>58.536999999999999</v>
+        <v>100.13800000000001</v>
       </c>
       <c r="Z3">
-        <v>0.25600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>31.186</v>
+        <v>14.233000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>34.756999999999998</v>
+        <v>22.167000000000002</v>
       </c>
       <c r="D4">
-        <v>136.72399999999999</v>
+        <v>72.093000000000004</v>
       </c>
       <c r="E4">
-        <v>73.917000000000002</v>
+        <v>12.776999999999999</v>
       </c>
       <c r="F4">
-        <v>96.043999999999997</v>
+        <v>57.091000000000001</v>
       </c>
       <c r="G4">
-        <v>192.10400000000001</v>
+        <v>44.252000000000002</v>
       </c>
       <c r="H4">
-        <v>3220.6680000000001</v>
+        <v>1735.0930000000001</v>
       </c>
       <c r="I4">
-        <v>86.552000000000007</v>
+        <v>50.276000000000003</v>
       </c>
       <c r="J4">
-        <v>1511.895</v>
+        <v>1040.9690000000001</v>
       </c>
       <c r="K4">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>318.86399999999998</v>
+        <v>70.388999999999996</v>
       </c>
       <c r="O4">
-        <v>1956.7719999999999</v>
+        <v>1226.4159999999999</v>
       </c>
       <c r="P4">
-        <v>1760.2919999999999</v>
+        <v>1140.9929999999999</v>
       </c>
       <c r="Q4">
-        <v>9.8469999999999995</v>
+        <v>20.332000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1263.896</v>
+        <v>508.67700000000002</v>
       </c>
       <c r="U4">
-        <v>19.847999999999999</v>
+        <v>31.475000000000001</v>
       </c>
       <c r="V4">
-        <v>72.698999999999998</v>
+        <v>28.140999999999998</v>
       </c>
       <c r="W4">
-        <v>-41.74</v>
+        <v>-19.972000000000001</v>
       </c>
       <c r="X4">
-        <v>-39</v>
+        <v>29.582999999999998</v>
       </c>
       <c r="Y4">
-        <v>58.536999999999999</v>
+        <v>100.024</v>
       </c>
       <c r="Z4">
-        <v>-6.6920000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>34.756999999999998</v>
+        <v>22.167000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>47.052999999999997</v>
+        <v>15.182</v>
       </c>
       <c r="D5">
-        <v>138.09800000000001</v>
+        <v>74.149000000000001</v>
       </c>
       <c r="E5">
-        <v>78.503</v>
+        <v>13.718</v>
       </c>
       <c r="F5">
-        <v>96.456000000000003</v>
+        <v>58.895000000000003</v>
       </c>
       <c r="G5">
-        <v>209.994</v>
+        <v>28.353999999999999</v>
       </c>
       <c r="H5">
-        <v>3254.848</v>
+        <v>1794.95</v>
       </c>
       <c r="I5">
-        <v>89.623000000000005</v>
+        <v>68.984999999999999</v>
       </c>
       <c r="J5">
-        <v>1492.42</v>
+        <v>1091.5719999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>309.18299999999999</v>
+        <v>89.516000000000005</v>
       </c>
       <c r="O5">
-        <v>1931.721</v>
+        <v>1295.2049999999999</v>
       </c>
       <c r="P5">
-        <v>1730.875</v>
+        <v>1191.836</v>
       </c>
       <c r="Q5">
-        <v>2.222</v>
+        <v>-16.838999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1323.127</v>
+        <v>499.745</v>
       </c>
       <c r="U5">
-        <v>22.07</v>
+        <v>14.635999999999999</v>
       </c>
       <c r="V5">
-        <v>54.253</v>
+        <v>30.224</v>
       </c>
       <c r="W5">
-        <v>-42.207999999999998</v>
+        <v>-20.141999999999999</v>
       </c>
       <c r="X5">
-        <v>-27.478000000000002</v>
+        <v>13.423</v>
       </c>
       <c r="Y5">
-        <v>63.09</v>
+        <v>100.264</v>
       </c>
       <c r="Z5">
-        <v>-6.9000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>47.052999999999997</v>
+        <v>15.182</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>30.920999999999999</v>
+        <v>17.173999999999999</v>
       </c>
       <c r="D6">
-        <v>142.07300000000001</v>
+        <v>78.468999999999994</v>
       </c>
       <c r="E6">
-        <v>75.921000000000006</v>
+        <v>15.483000000000001</v>
       </c>
       <c r="F6">
-        <v>105.90300000000001</v>
+        <v>60.868000000000002</v>
       </c>
       <c r="G6">
-        <v>245.31899999999999</v>
+        <v>77.778999999999996</v>
       </c>
       <c r="H6">
-        <v>3666.21</v>
+        <v>1834.8810000000001</v>
       </c>
       <c r="I6">
-        <v>93.62</v>
+        <v>64.013999999999996</v>
       </c>
       <c r="J6">
-        <v>2047.317</v>
+        <v>966.17499999999995</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>148.88900000000001</v>
+        <v>129.678</v>
       </c>
       <c r="O6">
-        <v>2340.2809999999999</v>
+        <v>1212.5719999999999</v>
       </c>
       <c r="P6">
-        <v>2114.35</v>
+        <v>1110.4680000000001</v>
       </c>
       <c r="Q6">
-        <v>45.735999999999997</v>
+        <v>2.927</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="T6">
-        <v>1325.9290000000001</v>
+        <v>622.30899999999997</v>
       </c>
       <c r="U6">
-        <v>67.805999999999997</v>
+        <v>17.562999999999999</v>
       </c>
       <c r="V6">
-        <v>71.760000000000005</v>
+        <v>21.187000000000001</v>
       </c>
       <c r="W6">
-        <v>-43.948</v>
+        <v>-20.545999999999999</v>
       </c>
       <c r="X6">
-        <v>69.031999999999996</v>
+        <v>28.710999999999999</v>
       </c>
       <c r="Y6">
-        <v>63.093000000000004</v>
+        <v>100.29300000000001</v>
       </c>
       <c r="Z6">
-        <v>35.244999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>30.920999999999999</v>
+        <v>17.173999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>42.985999999999997</v>
+        <v>-1.331</v>
       </c>
       <c r="D7">
-        <v>146.59</v>
+        <v>75.236000000000004</v>
       </c>
       <c r="E7">
-        <v>75.870999999999995</v>
+        <v>17.094999999999999</v>
       </c>
       <c r="F7">
-        <v>104.423</v>
+        <v>59.865000000000002</v>
       </c>
       <c r="G7">
-        <v>265.964</v>
+        <v>85.221999999999994</v>
       </c>
       <c r="H7">
-        <v>3668.848</v>
+        <v>1875.1990000000001</v>
       </c>
       <c r="I7">
-        <v>89.77</v>
+        <v>68.093000000000004</v>
       </c>
       <c r="J7">
-        <v>1818.1220000000001</v>
+        <v>1052.4280000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-3.2919999999999998</v>
+        <v>-0.29699999999999999</v>
       </c>
       <c r="N7">
-        <v>362.28699999999998</v>
+        <v>90.795000000000002</v>
       </c>
       <c r="O7">
-        <v>2320.31</v>
+        <v>1258.058</v>
       </c>
       <c r="P7">
-        <v>2117.8560000000002</v>
+        <v>1152.0909999999999</v>
       </c>
       <c r="Q7">
-        <v>1.3759999999999999</v>
+        <v>-0.23799999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1348.538</v>
+        <v>617.14099999999996</v>
       </c>
       <c r="U7">
-        <v>69.182000000000002</v>
+        <v>17.324999999999999</v>
       </c>
       <c r="V7">
-        <v>69.456999999999994</v>
+        <v>32.274000000000001</v>
       </c>
       <c r="W7">
-        <v>-43.497</v>
+        <v>-22.608000000000001</v>
       </c>
       <c r="X7">
-        <v>-28.798999999999999</v>
+        <v>26.436</v>
       </c>
       <c r="Y7">
-        <v>71.69</v>
+        <v>99.662999999999997</v>
       </c>
       <c r="Z7">
-        <v>0.14299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>42.985999999999997</v>
+        <v>-1.331</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>35.335000000000001</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>75.811999999999998</v>
       </c>
       <c r="E8">
-        <v>76.600999999999999</v>
+        <v>14.611000000000001</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>59.369</v>
       </c>
       <c r="G8">
-        <v>273.67700000000002</v>
+        <v>77.563000000000002</v>
       </c>
       <c r="H8">
-        <v>3680.9290000000001</v>
+        <v>1946.905</v>
       </c>
       <c r="I8">
-        <v>100.411</v>
+        <v>68.813999999999993</v>
       </c>
       <c r="J8">
-        <v>1830.557</v>
+        <v>1051.008</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>363.44799999999998</v>
+        <v>92.744</v>
       </c>
       <c r="O8">
-        <v>2332.6129999999998</v>
+        <v>1262.8009999999999</v>
       </c>
       <c r="P8">
-        <v>2120.6959999999999</v>
+        <v>1155.521</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1348.316</v>
+        <v>684.10400000000004</v>
       </c>
       <c r="U8">
-        <v>82.774000000000001</v>
+        <v>18.722999999999999</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>33.718000000000004</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-23.693000000000001</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>34.082000000000001</v>
       </c>
       <c r="Y8">
-        <v>71.69</v>
+        <v>104.51300000000001</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>35.335000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>38.643999999999998</v>
+        <v>18.504000000000001</v>
       </c>
       <c r="D9">
-        <v>157.72200000000001</v>
+        <v>78.096999999999994</v>
       </c>
       <c r="E9">
-        <v>82.152000000000001</v>
+        <v>10.874000000000001</v>
       </c>
       <c r="F9">
-        <v>110.84</v>
+        <v>60.646999999999998</v>
       </c>
       <c r="G9">
-        <v>357.42399999999998</v>
+        <v>88.322000000000003</v>
       </c>
       <c r="H9">
-        <v>3804.3389999999999</v>
+        <v>2003.5340000000001</v>
       </c>
       <c r="I9">
-        <v>108.033</v>
+        <v>87.491</v>
       </c>
       <c r="J9">
-        <v>2044.0119999999999</v>
+        <v>1092.6099999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>231.50200000000001</v>
+        <v>111.73</v>
       </c>
       <c r="O9">
-        <v>2410.5659999999998</v>
+        <v>1327.1579999999999</v>
       </c>
       <c r="P9">
-        <v>2191.6149999999998</v>
+        <v>1197.0640000000001</v>
       </c>
       <c r="Q9">
-        <v>64.906000000000006</v>
+        <v>5.9290000000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1393.7729999999999</v>
+        <v>676.37599999999998</v>
       </c>
       <c r="U9">
-        <v>147.68</v>
+        <v>24.652000000000001</v>
       </c>
       <c r="V9">
-        <v>59.26</v>
+        <v>30.872</v>
       </c>
       <c r="W9">
-        <v>-43.912999999999997</v>
+        <v>-24.928000000000001</v>
       </c>
       <c r="X9">
-        <v>75.733000000000004</v>
+        <v>17.824999999999999</v>
       </c>
       <c r="Y9">
-        <v>71.69</v>
+        <v>104.45399999999999</v>
       </c>
       <c r="Z9">
-        <v>0.17199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>38.643999999999998</v>
+        <v>18.504000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>37.692</v>
+        <v>2.7789999999999999</v>
       </c>
       <c r="D10">
-        <v>156.31299999999999</v>
+        <v>86.953999999999994</v>
       </c>
       <c r="E10">
-        <v>73.861000000000004</v>
+        <v>18.722000000000001</v>
       </c>
       <c r="F10">
-        <v>116.85299999999999</v>
+        <v>63.16</v>
       </c>
       <c r="G10">
-        <v>243.155</v>
+        <v>99.102000000000004</v>
       </c>
       <c r="H10">
-        <v>3898.5650000000001</v>
+        <v>1999.3779999999999</v>
       </c>
       <c r="I10">
-        <v>108.541</v>
+        <v>79.516999999999996</v>
       </c>
       <c r="J10">
-        <v>2136.9090000000001</v>
+        <v>1022.128</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>168.614</v>
+        <v>178.87299999999999</v>
       </c>
       <c r="O10">
-        <v>2493.5520000000001</v>
+        <v>1325.7249999999999</v>
       </c>
       <c r="P10">
-        <v>2220.9899999999998</v>
+        <v>1201.5229999999999</v>
       </c>
       <c r="Q10">
-        <v>-110.69199999999999</v>
+        <v>-1.5289999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="T10">
-        <v>1405.0129999999999</v>
+        <v>673.65300000000002</v>
       </c>
       <c r="U10">
-        <v>36.988</v>
+        <v>23.123000000000001</v>
       </c>
       <c r="V10">
-        <v>87.477999999999994</v>
+        <v>22.204999999999998</v>
       </c>
       <c r="W10">
-        <v>-46.847999999999999</v>
+        <v>-25.231999999999999</v>
       </c>
       <c r="X10">
-        <v>-68.046999999999997</v>
+        <v>-16.108000000000001</v>
       </c>
       <c r="Y10">
-        <v>71.692999999999998</v>
+        <v>104.395</v>
       </c>
       <c r="Z10">
-        <v>0.69599999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>37.692</v>
+        <v>2.7789999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>34.588000000000001</v>
+        <v>16.376000000000001</v>
       </c>
       <c r="D11">
-        <v>157.46100000000001</v>
+        <v>84.545000000000002</v>
       </c>
       <c r="E11">
-        <v>77.153999999999996</v>
+        <v>23.382999999999999</v>
       </c>
       <c r="F11">
-        <v>110.38800000000001</v>
+        <v>63.018000000000001</v>
       </c>
       <c r="G11">
-        <v>239.62</v>
+        <v>99.825000000000003</v>
       </c>
       <c r="H11">
-        <v>3905.9319999999998</v>
+        <v>2071.4009999999998</v>
       </c>
       <c r="I11">
-        <v>115.94199999999999</v>
+        <v>71.456999999999994</v>
       </c>
       <c r="J11">
-        <v>1960.684</v>
+        <v>757.53200000000004</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-12.095000000000001</v>
+        <v>-41.683999999999997</v>
       </c>
       <c r="N11">
-        <v>338.23500000000001</v>
+        <v>485.82499999999999</v>
       </c>
       <c r="O11">
-        <v>2478.1529999999998</v>
+        <v>1367.537</v>
       </c>
       <c r="P11">
-        <v>2206.6680000000001</v>
+        <v>1251.0889999999999</v>
       </c>
       <c r="Q11">
-        <v>-5.7140000000000004</v>
+        <v>-5.01</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1427.779</v>
+        <v>703.86400000000003</v>
       </c>
       <c r="U11">
-        <v>31.274000000000001</v>
+        <v>18.113</v>
       </c>
       <c r="V11">
-        <v>67.692999999999998</v>
+        <v>24.677</v>
       </c>
       <c r="W11">
-        <v>-46.884</v>
+        <v>-25.353000000000002</v>
       </c>
       <c r="X11">
-        <v>-27.731999999999999</v>
+        <v>45.505000000000003</v>
       </c>
       <c r="Y11">
-        <v>71.668000000000006</v>
+        <v>104.333</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>34.588000000000001</v>
+        <v>16.376000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>37.539000000000001</v>
+        <v>18.126000000000001</v>
       </c>
       <c r="D12">
-        <v>157.76</v>
+        <v>84.513999999999996</v>
       </c>
       <c r="E12">
-        <v>84.102999999999994</v>
+        <v>22.858000000000001</v>
       </c>
       <c r="F12">
-        <v>111.919</v>
+        <v>65.495000000000005</v>
       </c>
       <c r="G12">
-        <v>318.27300000000002</v>
+        <v>118.374</v>
       </c>
       <c r="H12">
-        <v>4085.203</v>
+        <v>2050.4679999999998</v>
       </c>
       <c r="I12">
-        <v>136.56399999999999</v>
+        <v>59.680999999999997</v>
       </c>
       <c r="J12">
-        <v>2232.1080000000002</v>
+        <v>796.928</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>193.43</v>
+        <v>417.97399999999999</v>
       </c>
       <c r="O12">
-        <v>2607.2660000000001</v>
+        <v>1341.979</v>
       </c>
       <c r="P12">
-        <v>2312.346</v>
+        <v>1233.8</v>
       </c>
       <c r="Q12">
-        <v>77.091999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1477.9369999999999</v>
+        <v>708.48900000000003</v>
       </c>
       <c r="U12">
-        <v>108.366</v>
+        <v>18.609000000000002</v>
       </c>
       <c r="V12">
-        <v>79.003</v>
+        <v>33.805999999999997</v>
       </c>
       <c r="W12">
-        <v>-47.311999999999998</v>
+        <v>-27.099</v>
       </c>
       <c r="X12">
-        <v>110.592</v>
+        <v>-32.036000000000001</v>
       </c>
       <c r="Y12">
-        <v>71.668000000000006</v>
+        <v>104.271</v>
       </c>
       <c r="Z12">
-        <v>6.8000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>37.539000000000001</v>
+        <v>18.126000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>24.594999999999999</v>
       </c>
       <c r="D13">
-        <v>159.411</v>
+        <v>85.936000000000007</v>
       </c>
       <c r="E13">
-        <v>87.284000000000006</v>
+        <v>23.486999999999998</v>
       </c>
       <c r="F13">
-        <v>111.96599999999999</v>
+        <v>66.983999999999995</v>
       </c>
       <c r="G13">
-        <v>347.94600000000003</v>
+        <v>121.767</v>
       </c>
       <c r="H13">
-        <v>4159.4759999999997</v>
+        <v>2044.0440000000001</v>
       </c>
       <c r="I13">
-        <v>157.095</v>
+        <v>62.378</v>
       </c>
       <c r="J13">
-        <v>2231.5210000000002</v>
+        <v>796.928</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>215.489</v>
+        <v>411.83600000000001</v>
       </c>
       <c r="O13">
-        <v>2634.5459999999998</v>
+        <v>1334.5719999999999</v>
       </c>
       <c r="P13">
-        <v>2309.7370000000001</v>
+        <v>1224.5229999999999</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>15.047000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1524.93</v>
+        <v>709.47199999999998</v>
       </c>
       <c r="U13">
-        <v>127.831</v>
+        <v>33.655999999999999</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>31.526</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-26.027999999999999</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-34.097999999999999</v>
       </c>
       <c r="Y13">
-        <v>71.668000000000006</v>
+        <v>104.14</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>62.097999999999999</v>
+        <v>24.594999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>28.456</v>
+        <v>35.4</v>
       </c>
       <c r="D14">
-        <v>164.279</v>
+        <v>98.372</v>
       </c>
       <c r="E14">
-        <v>84.837999999999994</v>
+        <v>31.207000000000001</v>
       </c>
       <c r="F14">
-        <v>122.848</v>
+        <v>75.448999999999998</v>
       </c>
       <c r="G14">
-        <v>304.02699999999999</v>
+        <v>135.51</v>
       </c>
       <c r="H14">
-        <v>4219.2939999999999</v>
+        <v>2141.1849999999999</v>
       </c>
       <c r="I14">
-        <v>154.85300000000001</v>
+        <v>61.018000000000001</v>
       </c>
       <c r="J14">
-        <v>2250.1909999999998</v>
+        <v>1148.944</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>208.655</v>
+        <v>87.039000000000001</v>
       </c>
       <c r="O14">
-        <v>2643.5720000000001</v>
+        <v>1420.229</v>
       </c>
       <c r="P14">
-        <v>2323.279</v>
+        <v>1308.43</v>
       </c>
       <c r="Q14">
-        <v>-38.904000000000003</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="T14">
-        <v>1575.722</v>
+        <v>720.95600000000002</v>
       </c>
       <c r="U14">
-        <v>88.927000000000007</v>
+        <v>34.968000000000004</v>
       </c>
       <c r="V14">
-        <v>87.77</v>
+        <v>31.45</v>
       </c>
       <c r="W14">
-        <v>-51.167000000000002</v>
+        <v>-26.321999999999999</v>
       </c>
       <c r="X14">
-        <v>17.036999999999999</v>
+        <v>1.355</v>
       </c>
       <c r="Y14">
-        <v>71.671000000000006</v>
+        <v>159.48599999999999</v>
       </c>
       <c r="Z14">
-        <v>0.69699999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>28.456</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>38.753</v>
+        <v>17.245999999999999</v>
       </c>
       <c r="D15">
-        <v>171.041</v>
+        <v>94.231999999999999</v>
       </c>
       <c r="E15">
-        <v>92.769000000000005</v>
+        <v>34.915999999999997</v>
       </c>
       <c r="F15">
-        <v>115.211</v>
+        <v>72.283000000000001</v>
       </c>
       <c r="G15">
-        <v>299.38900000000001</v>
+        <v>131.38499999999999</v>
       </c>
       <c r="H15">
-        <v>4405.6469999999999</v>
+        <v>2249.0549999999998</v>
       </c>
       <c r="I15">
-        <v>155.39699999999999</v>
+        <v>69.623999999999995</v>
       </c>
       <c r="J15">
-        <v>2280.585</v>
+        <v>1248.989</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-2.8420000000000001</v>
+        <v>-40.365000000000002</v>
       </c>
       <c r="N15">
-        <v>250.376</v>
+        <v>98.28</v>
       </c>
       <c r="O15">
-        <v>2721.011</v>
+        <v>1536.4639999999999</v>
       </c>
       <c r="P15">
-        <v>2393.8969999999999</v>
+        <v>1410.5650000000001</v>
       </c>
       <c r="Q15">
-        <v>-13.228</v>
+        <v>-7.0279999999999996</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1684.636</v>
+        <v>712.59100000000001</v>
       </c>
       <c r="U15">
-        <v>75.698999999999998</v>
+        <v>27.94</v>
       </c>
       <c r="V15">
-        <v>79.162000000000006</v>
+        <v>38.658000000000001</v>
       </c>
       <c r="W15">
-        <v>-51.713999999999999</v>
+        <v>-26.341999999999999</v>
       </c>
       <c r="X15">
-        <v>-4.3499999999999996</v>
+        <v>74.884</v>
       </c>
       <c r="Y15">
-        <v>71.643000000000001</v>
+        <v>159</v>
       </c>
       <c r="Z15">
-        <v>9.1999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>38.753</v>
+        <v>17.245999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>43.545000000000002</v>
+        <v>26.332000000000001</v>
       </c>
       <c r="D16">
-        <v>168.197</v>
+        <v>97.063000000000002</v>
       </c>
       <c r="E16">
-        <v>97.741</v>
+        <v>34.494</v>
       </c>
       <c r="F16">
-        <v>117.628</v>
+        <v>75.286000000000001</v>
       </c>
       <c r="G16">
-        <v>267.61700000000002</v>
+        <v>148.012</v>
       </c>
       <c r="H16">
-        <v>4431.4849999999997</v>
+        <v>2275.2130000000002</v>
       </c>
       <c r="I16">
-        <v>164.55500000000001</v>
+        <v>60.704000000000001</v>
       </c>
       <c r="J16">
-        <v>2280.8679999999999</v>
+        <v>1160.912</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>227.48599999999999</v>
+        <v>89.71</v>
       </c>
       <c r="O16">
-        <v>2702.741</v>
+        <v>1455.37</v>
       </c>
       <c r="P16">
-        <v>2361.8110000000001</v>
+        <v>1321.684</v>
       </c>
       <c r="Q16">
-        <v>-34.387</v>
+        <v>17.163</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1728.7439999999999</v>
+        <v>819.84299999999996</v>
       </c>
       <c r="U16">
-        <v>41.311999999999998</v>
+        <v>45.103000000000002</v>
       </c>
       <c r="V16">
-        <v>92.906999999999996</v>
+        <v>44.319000000000003</v>
       </c>
       <c r="W16">
-        <v>-52.142000000000003</v>
+        <v>-26.396000000000001</v>
       </c>
       <c r="X16">
-        <v>-25.212</v>
+        <v>-13.047000000000001</v>
       </c>
       <c r="Y16">
-        <v>71.643000000000001</v>
+        <v>159</v>
       </c>
       <c r="Z16">
-        <v>-3.3719999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>43.545000000000002</v>
+        <v>26.332000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>47.075000000000003</v>
+        <v>18.66</v>
       </c>
       <c r="D17">
-        <v>171.38399999999999</v>
+        <v>98.852999999999994</v>
       </c>
       <c r="E17">
-        <v>104.746</v>
+        <v>34.747999999999998</v>
       </c>
       <c r="F17">
-        <v>119.102</v>
+        <v>76.600999999999999</v>
       </c>
       <c r="G17">
-        <v>275.39</v>
+        <v>128.36799999999999</v>
       </c>
       <c r="H17">
-        <v>4479.3980000000001</v>
+        <v>2281.02</v>
       </c>
       <c r="I17">
-        <v>158.44499999999999</v>
+        <v>84.622</v>
       </c>
       <c r="J17">
-        <v>2290.5790000000002</v>
+        <v>1140.0989999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>223.124</v>
+        <v>113.488</v>
       </c>
       <c r="O17">
-        <v>2706.9340000000002</v>
+        <v>1456.0070000000001</v>
       </c>
       <c r="P17">
-        <v>2366.6959999999999</v>
+        <v>1299.9010000000001</v>
       </c>
       <c r="Q17">
-        <v>-17.395</v>
+        <v>-21.666</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1772.4639999999999</v>
+        <v>825.01300000000003</v>
       </c>
       <c r="U17">
-        <v>23.917000000000002</v>
+        <v>23.437000000000001</v>
       </c>
       <c r="V17">
-        <v>69.777000000000001</v>
+        <v>46.234999999999999</v>
       </c>
       <c r="W17">
-        <v>-52.456000000000003</v>
+        <v>-27.591999999999999</v>
       </c>
       <c r="X17">
-        <v>3.63</v>
+        <v>-46.701000000000001</v>
       </c>
       <c r="Y17">
-        <v>71.643000000000001</v>
+        <v>159</v>
       </c>
       <c r="Z17">
-        <v>-3.23</v>
+        <v>-14.058999999999999</v>
       </c>
       <c r="AA17">
-        <v>47.075000000000003</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>35.161999999999999</v>
+        <v>21.917999999999999</v>
       </c>
       <c r="D18">
-        <v>176.71100000000001</v>
+        <v>95.444000000000003</v>
       </c>
       <c r="E18">
-        <v>93.290999999999997</v>
+        <v>34.848999999999997</v>
       </c>
       <c r="F18">
-        <v>133.001</v>
+        <v>71.212999999999994</v>
       </c>
       <c r="G18">
-        <v>288.00900000000001</v>
+        <v>137.09100000000001</v>
       </c>
       <c r="H18">
-        <v>4546.87</v>
+        <v>2266.8960000000002</v>
       </c>
       <c r="I18">
-        <v>134.97</v>
+        <v>80.558000000000007</v>
       </c>
       <c r="J18">
-        <v>2338.0300000000002</v>
+        <v>1145.057</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>206.30500000000001</v>
+        <v>108.8</v>
       </c>
       <c r="O18">
-        <v>2735.261</v>
+        <v>1457.4079999999999</v>
       </c>
       <c r="P18">
-        <v>2413.192</v>
+        <v>1304.057</v>
       </c>
       <c r="Q18">
-        <v>24.033999999999999</v>
+        <v>7.0380000000000003</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T18">
-        <v>1811.6089999999999</v>
+        <v>809.48800000000006</v>
       </c>
       <c r="U18">
-        <v>47.951000000000001</v>
+        <v>30.475000000000001</v>
       </c>
       <c r="V18">
-        <v>104.28400000000001</v>
+        <v>44.936</v>
       </c>
       <c r="W18">
-        <v>-58.904000000000003</v>
+        <v>-28.425999999999998</v>
       </c>
       <c r="X18">
-        <v>34.975999999999999</v>
+        <v>-36.165999999999997</v>
       </c>
       <c r="Y18">
-        <v>71.647000000000006</v>
+        <v>159</v>
       </c>
       <c r="Z18">
-        <v>0.34399999999999997</v>
+        <v>4.633</v>
       </c>
       <c r="AA18">
-        <v>35.161999999999999</v>
+        <v>21.917999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>46.186</v>
+        <v>23.997</v>
       </c>
       <c r="D19">
-        <v>185.012</v>
+        <v>101.589</v>
       </c>
       <c r="E19">
-        <v>100.98099999999999</v>
+        <v>41.039000000000001</v>
       </c>
       <c r="F19">
-        <v>123.179</v>
+        <v>78.397999999999996</v>
       </c>
       <c r="G19">
-        <v>439.34</v>
+        <v>141.09100000000001</v>
       </c>
       <c r="H19">
-        <v>4780.75</v>
+        <v>2327.3249999999998</v>
       </c>
       <c r="I19">
-        <v>143.40299999999999</v>
+        <v>71.900999999999996</v>
       </c>
       <c r="J19">
-        <v>2212.893</v>
+        <v>1158.357</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-11.035</v>
+        <v>-9.7140000000000004</v>
       </c>
       <c r="N19">
-        <v>562.30100000000004</v>
+        <v>143.589</v>
       </c>
       <c r="O19">
-        <v>2969.6790000000001</v>
+        <v>1506.9829999999999</v>
       </c>
       <c r="P19">
-        <v>2642.7089999999998</v>
+        <v>1359.4849999999999</v>
       </c>
       <c r="Q19">
-        <v>123.486</v>
+        <v>-2.83</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1811.0709999999999</v>
+        <v>820.34199999999998</v>
       </c>
       <c r="U19">
-        <v>171.43700000000001</v>
+        <v>27.645</v>
       </c>
       <c r="V19">
-        <v>81.986000000000004</v>
+        <v>38.738999999999997</v>
       </c>
       <c r="W19">
-        <v>-59.33</v>
+        <v>-28.613</v>
       </c>
       <c r="X19">
-        <v>136.44499999999999</v>
+        <v>39.290999999999997</v>
       </c>
       <c r="Y19">
-        <v>71.616</v>
+        <v>157.858</v>
       </c>
       <c r="Z19">
-        <v>-4.7E-2</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>46.186</v>
+        <v>23.997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>43.631999999999998</v>
+        <v>24.806999999999999</v>
       </c>
       <c r="D20">
-        <v>181.86699999999999</v>
+        <v>99.406000000000006</v>
       </c>
       <c r="E20">
-        <v>106.218</v>
+        <v>34.823</v>
       </c>
       <c r="F20">
-        <v>128.577</v>
+        <v>71.3</v>
       </c>
       <c r="G20">
-        <v>285.97800000000001</v>
+        <v>116.355</v>
       </c>
       <c r="H20">
-        <v>4733.8379999999997</v>
+        <v>2297.0219999999999</v>
       </c>
       <c r="I20">
-        <v>133.035</v>
+        <v>80.519000000000005</v>
       </c>
       <c r="J20">
-        <v>2318.12</v>
+        <v>1142.4960000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>348.70499999999998</v>
+        <v>153.79900000000001</v>
       </c>
       <c r="O20">
-        <v>2871.9119999999998</v>
+        <v>1500.3040000000001</v>
       </c>
       <c r="P20">
-        <v>2544.4140000000002</v>
+        <v>1342.492</v>
       </c>
       <c r="Q20">
-        <v>-149.262</v>
+        <v>-14.02</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1861.9259999999999</v>
+        <v>796.71799999999996</v>
       </c>
       <c r="U20">
-        <v>22.175000000000001</v>
+        <v>13.625</v>
       </c>
       <c r="V20">
-        <v>91.662000000000006</v>
+        <v>50.405999999999999</v>
       </c>
       <c r="W20">
-        <v>-59.390999999999998</v>
+        <v>-28.343</v>
       </c>
       <c r="X20">
-        <v>-119.518</v>
+        <v>-45.847000000000001</v>
       </c>
       <c r="Y20">
-        <v>71.616</v>
+        <v>157.858</v>
       </c>
       <c r="Z20">
-        <v>-0.10199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>43.631999999999998</v>
+        <v>24.806999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>52.447000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="D21">
-        <v>185.61199999999999</v>
+        <v>100.645</v>
       </c>
       <c r="E21">
-        <v>112.267</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="F21">
-        <v>129.369</v>
+        <v>80.899000000000001</v>
       </c>
       <c r="G21">
-        <v>305.53399999999999</v>
+        <v>127.88</v>
       </c>
       <c r="H21">
-        <v>4783.8029999999999</v>
+        <v>2303.0720000000001</v>
       </c>
       <c r="I21">
-        <v>147.63300000000001</v>
+        <v>94.94</v>
       </c>
       <c r="J21">
-        <v>2442.0990000000002</v>
+        <v>1174.683</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>240.16900000000001</v>
+        <v>127.06399999999999</v>
       </c>
       <c r="O21">
-        <v>2885.056</v>
+        <v>1505.877</v>
       </c>
       <c r="P21">
-        <v>2539.9549999999999</v>
+        <v>1333.4870000000001</v>
       </c>
       <c r="Q21">
-        <v>-9.3109999999999999</v>
+        <v>2.948</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1898.7470000000001</v>
+        <v>797.19500000000005</v>
       </c>
       <c r="U21">
-        <v>12.864000000000001</v>
+        <v>16.573</v>
       </c>
       <c r="V21">
-        <v>87.501999999999995</v>
+        <v>45.72</v>
       </c>
       <c r="W21">
-        <v>-59.692</v>
+        <v>-31.843</v>
       </c>
       <c r="X21">
-        <v>-26.684999999999999</v>
+        <v>-40.497999999999998</v>
       </c>
       <c r="Y21">
-        <v>71.616</v>
+        <v>157.858</v>
       </c>
       <c r="Z21">
-        <v>-1.4059999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>52.447000000000003</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>67.953999999999994</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>192.93700000000001</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>110.402</v>
+        <v>38.161000000000001</v>
       </c>
       <c r="F22">
-        <v>139.93199999999999</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>306.52999999999997</v>
+        <v>129.96799999999999</v>
       </c>
       <c r="H22">
-        <v>4896.5590000000002</v>
+        <v>2350.8519999999999</v>
       </c>
       <c r="I22">
-        <v>134.732</v>
+        <v>88.088999999999999</v>
       </c>
       <c r="J22">
-        <v>2555.596</v>
+        <v>1241.328</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>212.87</v>
+        <v>119.357</v>
       </c>
       <c r="O22">
-        <v>2977.3119999999999</v>
+        <v>1556.8119999999999</v>
       </c>
       <c r="P22">
-        <v>2631.3159999999998</v>
+        <v>1390.143</v>
       </c>
       <c r="Q22">
-        <v>8.1820000000000004</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="T22">
-        <v>1919.2470000000001</v>
+        <v>794.04</v>
       </c>
       <c r="U22">
-        <v>21.045999999999999</v>
+        <v>8.6389999999999993</v>
       </c>
       <c r="V22">
-        <v>98.685000000000002</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-64.900999999999996</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-23.219000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>71.62</v>
+        <v>148.815</v>
       </c>
       <c r="Z22">
-        <v>-0.73499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>67.953999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>76.954999999999998</v>
+        <v>31.030999999999999</v>
       </c>
       <c r="D23">
-        <v>198.38499999999999</v>
+        <v>108.52800000000001</v>
       </c>
       <c r="E23">
-        <v>113.749</v>
+        <v>39.412999999999997</v>
       </c>
       <c r="F23">
-        <v>132.77199999999999</v>
+        <v>75.912000000000006</v>
       </c>
       <c r="G23">
-        <v>324.31700000000001</v>
+        <v>129.79499999999999</v>
       </c>
       <c r="H23">
-        <v>5125.4570000000003</v>
+        <v>2347.8690000000001</v>
       </c>
       <c r="I23">
-        <v>158.50700000000001</v>
+        <v>86.91</v>
       </c>
       <c r="J23">
-        <v>2553.3249999999998</v>
+        <v>1044.4770000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1.923</v>
+        <v>-41.790999999999997</v>
       </c>
       <c r="N23">
-        <v>267.411</v>
+        <v>318.185</v>
       </c>
       <c r="O23">
-        <v>3030.2840000000001</v>
+        <v>1558.6759999999999</v>
       </c>
       <c r="P23">
-        <v>2666.2220000000002</v>
+        <v>1391.9929999999999</v>
       </c>
       <c r="Q23">
-        <v>-1.33</v>
+        <v>-3.847</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2095.1729999999998</v>
+        <v>789.19299999999998</v>
       </c>
       <c r="U23">
-        <v>19.716000000000001</v>
+        <v>4.7919999999999998</v>
       </c>
       <c r="V23">
-        <v>104.879</v>
+        <v>47.401000000000003</v>
       </c>
       <c r="W23">
-        <v>-64.884</v>
+        <v>-42.83</v>
       </c>
       <c r="X23">
-        <v>95.477999999999994</v>
+        <v>-39.348999999999997</v>
       </c>
       <c r="Y23">
-        <v>71.585999999999999</v>
+        <v>147.58500000000001</v>
       </c>
       <c r="Z23">
-        <v>-0.69699999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>76.954999999999998</v>
+        <v>31.030999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>55.941000000000003</v>
+        <v>38.256</v>
       </c>
       <c r="D24">
-        <v>197.98099999999999</v>
+        <v>108.73399999999999</v>
       </c>
       <c r="E24">
-        <v>114.431</v>
+        <v>38.658999999999999</v>
       </c>
       <c r="F24">
-        <v>137.60599999999999</v>
+        <v>77.926000000000002</v>
       </c>
       <c r="G24">
-        <v>322.90300000000002</v>
+        <v>136.61000000000001</v>
       </c>
       <c r="H24">
-        <v>5188.4679999999998</v>
+        <v>2348.4690000000001</v>
       </c>
       <c r="I24">
-        <v>164.68199999999999</v>
+        <v>79.826999999999998</v>
       </c>
       <c r="J24">
-        <v>2590.4899999999998</v>
+        <v>1043.5550000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>242.79</v>
+        <v>313.81599999999997</v>
       </c>
       <c r="O24">
-        <v>3039.38</v>
+        <v>1551.925</v>
       </c>
       <c r="P24">
-        <v>2672.2530000000002</v>
+        <v>1393.7660000000001</v>
       </c>
       <c r="Q24">
-        <v>-1.0940000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2149.0880000000002</v>
+        <v>796.54399999999998</v>
       </c>
       <c r="U24">
-        <v>18.622</v>
+        <v>14.042</v>
       </c>
       <c r="V24">
-        <v>98.727999999999994</v>
+        <v>46.396999999999998</v>
       </c>
       <c r="W24">
-        <v>-66.191999999999993</v>
+        <v>-21.701000000000001</v>
       </c>
       <c r="X24">
-        <v>-0.60699999999999998</v>
+        <v>-31.170999999999999</v>
       </c>
       <c r="Y24">
-        <v>71.585999999999999</v>
+        <v>147.58500000000001</v>
       </c>
       <c r="Z24">
-        <v>2.4329999999999998</v>
+        <v>-4.93</v>
       </c>
       <c r="AA24">
-        <v>55.941000000000003</v>
+        <v>38.256</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>58.976999999999997</v>
+        <v>24.984000000000002</v>
       </c>
       <c r="D25">
-        <v>201.15700000000001</v>
+        <v>112.461</v>
       </c>
       <c r="E25">
-        <v>120.13500000000001</v>
+        <v>45.274000000000001</v>
       </c>
       <c r="F25">
-        <v>137.596</v>
+        <v>80.090999999999994</v>
       </c>
       <c r="G25">
-        <v>433.18200000000002</v>
+        <v>210.61799999999999</v>
       </c>
       <c r="H25">
-        <v>5397.3370000000004</v>
+        <v>2640.1219999999998</v>
       </c>
       <c r="I25">
-        <v>178.613</v>
+        <v>96.164000000000001</v>
       </c>
       <c r="J25">
-        <v>2736.7</v>
+        <v>1364.7339999999999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>256.51600000000002</v>
+        <v>131.02099999999999</v>
       </c>
       <c r="O25">
-        <v>3200.261</v>
+        <v>1696.8810000000001</v>
       </c>
       <c r="P25">
-        <v>2814.9580000000001</v>
+        <v>1513.4960000000001</v>
       </c>
       <c r="Q25">
-        <v>82.659000000000006</v>
+        <v>52.381999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2197.076</v>
+        <v>943.24099999999999</v>
       </c>
       <c r="U25">
-        <v>101.28100000000001</v>
+        <v>66.424000000000007</v>
       </c>
       <c r="V25">
-        <v>89.801000000000002</v>
+        <v>46.656999999999996</v>
       </c>
       <c r="W25">
-        <v>-66.674000000000007</v>
+        <v>-32.319000000000003</v>
       </c>
       <c r="X25">
-        <v>130.37299999999999</v>
+        <v>221.13200000000001</v>
       </c>
       <c r="Y25">
-        <v>71.585999999999999</v>
+        <v>147.58500000000001</v>
       </c>
       <c r="Z25">
-        <v>-1.32</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="AA25">
-        <v>58.976999999999997</v>
+        <v>24.984000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>58.036999999999999</v>
+        <v>24.440999999999999</v>
       </c>
       <c r="D26">
-        <v>204.11799999999999</v>
+        <v>98.46</v>
       </c>
       <c r="E26">
-        <v>116.749</v>
+        <v>47.493000000000002</v>
       </c>
       <c r="F26">
-        <v>148.57499999999999</v>
+        <v>72.344999999999999</v>
       </c>
       <c r="G26">
-        <v>319.11700000000002</v>
+        <v>165.16</v>
       </c>
       <c r="H26">
-        <v>5423.2790000000005</v>
+        <v>2688.6060000000002</v>
       </c>
       <c r="I26">
-        <v>196.35599999999999</v>
+        <v>97.727000000000004</v>
       </c>
       <c r="J26">
-        <v>2726.8620000000001</v>
+        <v>1397.569</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>273.19600000000003</v>
+        <v>279.536</v>
       </c>
       <c r="O26">
-        <v>3203.75</v>
+        <v>1882.337</v>
       </c>
       <c r="P26">
-        <v>2801.0520000000001</v>
+        <v>1696.93</v>
       </c>
       <c r="Q26">
-        <v>-77.912999999999997</v>
+        <v>-54.929000000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="T26">
-        <v>2219.529</v>
+        <v>806.26900000000001</v>
       </c>
       <c r="U26">
-        <v>23.367999999999999</v>
+        <v>11.494999999999999</v>
       </c>
       <c r="V26">
-        <v>130.297</v>
+        <v>46.198999999999998</v>
       </c>
       <c r="W26">
-        <v>-69.944000000000003</v>
+        <v>-35.497</v>
       </c>
       <c r="X26">
-        <v>-56.405999999999999</v>
+        <v>-16.981000000000002</v>
       </c>
       <c r="Y26">
-        <v>71.59</v>
+        <v>149.36099999999999</v>
       </c>
       <c r="Z26">
-        <v>-3.726</v>
+        <v>0.629</v>
       </c>
       <c r="AA26">
-        <v>58.036999999999999</v>
+        <v>24.440999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>56.19</v>
+        <v>23.135999999999999</v>
       </c>
       <c r="D27">
-        <v>207.38900000000001</v>
+        <v>115.547</v>
       </c>
       <c r="E27">
-        <v>115.77500000000001</v>
+        <v>50.996000000000002</v>
       </c>
       <c r="F27">
-        <v>141.19</v>
+        <v>80.680999999999997</v>
       </c>
       <c r="G27">
-        <v>340.14100000000002</v>
+        <v>169.00399999999999</v>
       </c>
       <c r="H27">
-        <v>5656.2</v>
+        <v>2929.3629999999998</v>
       </c>
       <c r="I27">
-        <v>190.40799999999999</v>
+        <v>96.406999999999996</v>
       </c>
       <c r="J27">
-        <v>2720.8339999999998</v>
+        <v>1525.164</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1.5669999999999999</v>
+        <v>-1.7190000000000001</v>
       </c>
       <c r="N27">
-        <v>484.53100000000001</v>
+        <v>284.62400000000002</v>
       </c>
       <c r="O27">
-        <v>3438.395</v>
+        <v>2023.761</v>
       </c>
       <c r="P27">
-        <v>3014.8620000000001</v>
+        <v>1828.7639999999999</v>
       </c>
       <c r="Q27">
-        <v>-1.389</v>
+        <v>4.492</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2217.8049999999998</v>
+        <v>905.60199999999998</v>
       </c>
       <c r="U27">
-        <v>20.111999999999998</v>
+        <v>15.987</v>
       </c>
       <c r="V27">
-        <v>123.93300000000001</v>
+        <v>55.685000000000002</v>
       </c>
       <c r="W27">
-        <v>-70.117000000000004</v>
+        <v>-31.81</v>
       </c>
       <c r="X27">
-        <v>153.95400000000001</v>
+        <v>27.401</v>
       </c>
       <c r="Y27">
-        <v>71.552000000000007</v>
+        <v>148.04599999999999</v>
       </c>
       <c r="Z27">
-        <v>-0.11799999999999999</v>
+        <v>-21.472000000000001</v>
       </c>
       <c r="AA27">
-        <v>56.19</v>
+        <v>23.135999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>76.290999999999997</v>
+        <v>26.718</v>
       </c>
       <c r="D28">
-        <v>207.935</v>
+        <v>118.29300000000001</v>
       </c>
       <c r="E28">
-        <v>168.99600000000001</v>
+        <v>52.753</v>
       </c>
       <c r="F28">
-        <v>144.285</v>
+        <v>83.623000000000005</v>
       </c>
       <c r="G28">
-        <v>453.5</v>
+        <v>165.87</v>
       </c>
       <c r="H28">
-        <v>5803.5029999999997</v>
+        <v>2901.1550000000002</v>
       </c>
       <c r="I28">
-        <v>189.35900000000001</v>
+        <v>91.646000000000001</v>
       </c>
       <c r="J28">
-        <v>3018.741</v>
+        <v>1512.557</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>314.86799999999999</v>
+        <v>275.36799999999999</v>
       </c>
       <c r="O28">
-        <v>3564.7809999999999</v>
+        <v>1998.1679999999999</v>
       </c>
       <c r="P28">
-        <v>3144.0880000000002</v>
+        <v>1813.4749999999999</v>
       </c>
       <c r="Q28">
-        <v>74.457999999999998</v>
+        <v>-4.2690000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2238.7220000000002</v>
+        <v>902.98699999999997</v>
       </c>
       <c r="U28">
-        <v>96.325999999999993</v>
+        <v>11.718</v>
       </c>
       <c r="V28">
-        <v>114.727</v>
+        <v>54.545999999999999</v>
       </c>
       <c r="W28">
-        <v>-70.33</v>
+        <v>-32.418999999999997</v>
       </c>
       <c r="X28">
-        <v>67.153999999999996</v>
+        <v>-44.661999999999999</v>
       </c>
       <c r="Y28">
-        <v>71.552000000000007</v>
+        <v>150.07400000000001</v>
       </c>
       <c r="Z28">
-        <v>1.36</v>
+        <v>1.466</v>
       </c>
       <c r="AA28">
-        <v>76.290999999999997</v>
+        <v>26.718</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>106.777</v>
+        <v>23.515000000000001</v>
       </c>
       <c r="D29">
-        <v>217.77099999999999</v>
+        <v>124.03700000000001</v>
       </c>
       <c r="E29">
-        <v>200.87799999999999</v>
+        <v>59.963999999999999</v>
       </c>
       <c r="F29">
-        <v>149.029</v>
+        <v>86.781999999999996</v>
       </c>
       <c r="G29">
-        <v>437.71800000000002</v>
+        <v>176.79499999999999</v>
       </c>
       <c r="H29">
-        <v>6221.1369999999997</v>
+        <v>2929.8589999999999</v>
       </c>
       <c r="I29">
-        <v>205.74100000000001</v>
+        <v>99.460999999999999</v>
       </c>
       <c r="J29">
-        <v>3181.2890000000002</v>
+        <v>1531.9880000000001</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>290.52800000000002</v>
+        <v>284.83300000000003</v>
       </c>
       <c r="O29">
-        <v>3735.5309999999999</v>
+        <v>2033.5820000000001</v>
       </c>
       <c r="P29">
-        <v>3264.1619999999998</v>
+        <v>1834.903</v>
       </c>
       <c r="Q29">
-        <v>-74.873999999999995</v>
+        <v>-1.4370000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2485.6060000000002</v>
+        <v>896.27700000000004</v>
       </c>
       <c r="U29">
-        <v>22.85</v>
+        <v>10.281000000000001</v>
       </c>
       <c r="V29">
-        <v>100.81100000000001</v>
+        <v>48.503</v>
       </c>
       <c r="W29">
-        <v>-70.397999999999996</v>
+        <v>-32.555999999999997</v>
       </c>
       <c r="X29">
-        <v>147.01599999999999</v>
+        <v>-12.624000000000001</v>
       </c>
       <c r="Y29">
-        <v>71.552000000000007</v>
+        <v>152.434</v>
       </c>
       <c r="Z29">
-        <v>-7.1999999999999995E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="AA29">
-        <v>106.777</v>
+        <v>23.515000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>50.655999999999999</v>
+        <v>122.16800000000001</v>
       </c>
       <c r="D30">
-        <v>223.83600000000001</v>
+        <v>126.64</v>
       </c>
       <c r="E30">
-        <v>209.87700000000001</v>
+        <v>61.107999999999997</v>
       </c>
       <c r="F30">
-        <v>158.70500000000001</v>
+        <v>91.71</v>
       </c>
       <c r="G30">
-        <v>408.98200000000003</v>
+        <v>215.41900000000001</v>
       </c>
       <c r="H30">
-        <v>6275.7550000000001</v>
+        <v>2989.297</v>
       </c>
       <c r="I30">
-        <v>193.03200000000001</v>
+        <v>99.36</v>
       </c>
       <c r="J30">
-        <v>3213.21</v>
+        <v>1362.3510000000001</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>272.26299999999998</v>
+        <v>335.50200000000001</v>
       </c>
       <c r="O30">
-        <v>3743.0839999999998</v>
+        <v>1842.847</v>
       </c>
       <c r="P30">
-        <v>3284.7660000000001</v>
+        <v>1638.46</v>
       </c>
       <c r="Q30">
-        <v>-7.8440000000000003</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="T30">
-        <v>2532.6709999999998</v>
+        <v>1146.45</v>
       </c>
       <c r="U30">
-        <v>15.188000000000001</v>
+        <v>50.691000000000003</v>
       </c>
       <c r="V30">
-        <v>119.357</v>
+        <v>55.475000000000001</v>
       </c>
       <c r="W30">
-        <v>-72.150000000000006</v>
+        <v>-34.658000000000001</v>
       </c>
       <c r="X30">
-        <v>1.321</v>
+        <v>6.3109999999999999</v>
       </c>
       <c r="Y30">
-        <v>71.555999999999997</v>
+        <v>76.108999999999995</v>
       </c>
       <c r="Z30">
-        <v>-0.13700000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="AA30">
-        <v>50.655999999999999</v>
+        <v>122.16800000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>61.247</v>
+        <v>29.986000000000001</v>
       </c>
       <c r="D31">
-        <v>224.88</v>
+        <v>126.7</v>
       </c>
       <c r="E31">
-        <v>143.148</v>
+        <v>64.587999999999994</v>
       </c>
       <c r="F31">
-        <v>151.65899999999999</v>
+        <v>87.049000000000007</v>
       </c>
       <c r="G31">
-        <v>439.83600000000001</v>
+        <v>185.86799999999999</v>
       </c>
       <c r="H31">
-        <v>6293.625</v>
+        <v>2979.13</v>
       </c>
       <c r="I31">
-        <v>181.36099999999999</v>
+        <v>95.757000000000005</v>
       </c>
       <c r="J31">
-        <v>3263.8670000000002</v>
+        <v>1360.44</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-11.978</v>
+        <v>-2.0390000000000001</v>
       </c>
       <c r="N31">
-        <v>257.06</v>
+        <v>332.96</v>
       </c>
       <c r="O31">
-        <v>3778.9740000000002</v>
+        <v>1834.3610000000001</v>
       </c>
       <c r="P31">
-        <v>3335.4140000000002</v>
+        <v>1636.4570000000001</v>
       </c>
       <c r="Q31">
-        <v>48.5</v>
+        <v>-23.036999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2514.6509999999998</v>
+        <v>1144.769</v>
       </c>
       <c r="U31">
-        <v>64.406999999999996</v>
+        <v>27.654</v>
       </c>
       <c r="V31">
-        <v>124.18</v>
+        <v>52.42</v>
       </c>
       <c r="W31">
-        <v>-74.924999999999997</v>
+        <v>-35.908999999999999</v>
       </c>
       <c r="X31">
-        <v>-29.501999999999999</v>
+        <v>-36.642000000000003</v>
       </c>
       <c r="Y31">
-        <v>71.515000000000001</v>
+        <v>75.033000000000001</v>
       </c>
       <c r="Z31">
-        <v>-8.6999999999999994E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AA31">
-        <v>61.247</v>
+        <v>29.986000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>63.594999999999999</v>
+        <v>28.974</v>
       </c>
       <c r="D32">
-        <v>224.17400000000001</v>
+        <v>129.154</v>
       </c>
       <c r="E32">
-        <v>149.86099999999999</v>
+        <v>66.430999999999997</v>
       </c>
       <c r="F32">
-        <v>155.96199999999999</v>
+        <v>88.858999999999995</v>
       </c>
       <c r="G32">
-        <v>474.72399999999999</v>
+        <v>182.46899999999999</v>
       </c>
       <c r="H32">
-        <v>6302.7030000000004</v>
+        <v>3026.547</v>
       </c>
       <c r="I32">
-        <v>178.66499999999999</v>
+        <v>53.860999999999997</v>
       </c>
       <c r="J32">
-        <v>3248.9459999999999</v>
+        <v>1569.491</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>254.44499999999999</v>
+        <v>157.56800000000001</v>
       </c>
       <c r="O32">
-        <v>3773.694</v>
+        <v>1883.2660000000001</v>
       </c>
       <c r="P32">
-        <v>3320.4839999999999</v>
+        <v>1665.934</v>
       </c>
       <c r="Q32">
-        <v>35.262</v>
+        <v>-7.3730000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2529.009</v>
+        <v>1143.2809999999999</v>
       </c>
       <c r="U32">
-        <v>56.116</v>
+        <v>20.280999999999999</v>
       </c>
       <c r="V32">
-        <v>138.93100000000001</v>
+        <v>70.563000000000002</v>
       </c>
       <c r="W32">
-        <v>-74.677999999999997</v>
+        <v>-35.987000000000002</v>
       </c>
       <c r="X32">
-        <v>-71.152000000000001</v>
+        <v>-7.0940000000000003</v>
       </c>
       <c r="Y32">
-        <v>71.515000000000001</v>
+        <v>75.033000000000001</v>
       </c>
       <c r="Z32">
-        <v>0.17199999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="AA32">
-        <v>63.594999999999999</v>
+        <v>28.974</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>62.558</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>228.31299999999999</v>
+        <v>132.114</v>
       </c>
       <c r="E33">
-        <v>151.40299999999999</v>
+        <v>69.438999999999993</v>
       </c>
       <c r="F33">
-        <v>157.31800000000001</v>
+        <v>89.875</v>
       </c>
       <c r="G33">
-        <v>485.35500000000002</v>
+        <v>218.62200000000001</v>
       </c>
       <c r="H33">
-        <v>6285.6639999999998</v>
+        <v>3111.5419999999999</v>
       </c>
       <c r="I33">
-        <v>184.68299999999999</v>
+        <v>92.588999999999999</v>
       </c>
       <c r="J33">
-        <v>3185.105</v>
+        <v>1690.7049999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>262.50599999999997</v>
+        <v>131.61799999999999</v>
       </c>
       <c r="O33">
-        <v>3710.777</v>
+        <v>1962.7919999999999</v>
       </c>
       <c r="P33">
-        <v>3256.634</v>
+        <v>1754.521</v>
       </c>
       <c r="Q33">
-        <v>-14.161</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2574.8870000000002</v>
+        <v>1148.75</v>
       </c>
       <c r="U33">
-        <v>41.872</v>
+        <v>48.991</v>
       </c>
       <c r="V33">
-        <v>101.605</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>-74.707999999999998</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-82.688000000000002</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>71.515000000000001</v>
+        <v>63.488</v>
       </c>
       <c r="Z33">
-        <v>37.533999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>62.558</v>
+        <v>37.101999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>54.506999999999998</v>
+        <v>33.725000000000001</v>
       </c>
       <c r="D34">
-        <v>234.67099999999999</v>
+        <v>133.959</v>
       </c>
       <c r="E34">
-        <v>142.23699999999999</v>
+        <v>73.688000000000002</v>
       </c>
       <c r="F34">
-        <v>167.16399999999999</v>
+        <v>96.837999999999994</v>
       </c>
       <c r="G34">
-        <v>456.74200000000002</v>
+        <v>184.255</v>
       </c>
       <c r="H34">
-        <v>6289.6440000000002</v>
+        <v>3092.7759999999998</v>
       </c>
       <c r="I34">
-        <v>174.822</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="J34">
-        <v>3157.6849999999999</v>
+        <v>1682.2929999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>256.12900000000002</v>
+        <v>125.669</v>
       </c>
       <c r="O34">
-        <v>3686.1060000000002</v>
+        <v>1945.8219999999999</v>
       </c>
       <c r="P34">
-        <v>3229.2040000000002</v>
+        <v>1745.7850000000001</v>
       </c>
       <c r="Q34">
-        <v>13.531000000000001</v>
+        <v>-33.768000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="T34">
-        <v>2603.538</v>
+        <v>1146.954</v>
       </c>
       <c r="U34">
-        <v>64.087000000000003</v>
+        <v>15.223000000000001</v>
       </c>
       <c r="V34">
-        <v>151.97200000000001</v>
+        <v>53.780999999999999</v>
       </c>
       <c r="W34">
-        <v>-76.882999999999996</v>
+        <v>-38.454999999999998</v>
       </c>
       <c r="X34">
-        <v>-57.966999999999999</v>
+        <v>-47.189</v>
       </c>
       <c r="Y34">
-        <v>71.519000000000005</v>
+        <v>63.491999999999997</v>
       </c>
       <c r="Z34">
-        <v>-0.38300000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="AA34">
-        <v>54.506999999999998</v>
+        <v>33.725000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>60.143999999999998</v>
+        <v>10.484</v>
       </c>
       <c r="D35">
-        <v>230.79300000000001</v>
+        <v>131.27799999999999</v>
       </c>
       <c r="E35">
-        <v>137.779</v>
+        <v>71.781000000000006</v>
       </c>
       <c r="F35">
-        <v>158.846</v>
+        <v>88.748999999999995</v>
       </c>
       <c r="G35">
-        <v>402.63099999999997</v>
+        <v>182.60499999999999</v>
       </c>
       <c r="H35">
-        <v>6351.366</v>
+        <v>3090.962</v>
       </c>
       <c r="I35">
-        <v>156.029</v>
+        <v>107.13200000000001</v>
       </c>
       <c r="J35">
-        <v>3156.5590000000002</v>
+        <v>1317.451</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-21.718</v>
+        <v>-12.654999999999999</v>
       </c>
       <c r="N35">
-        <v>234.57599999999999</v>
+        <v>516.80600000000004</v>
       </c>
       <c r="O35">
-        <v>3715.0949999999998</v>
+        <v>1969.335</v>
       </c>
       <c r="P35">
-        <v>3303.6869999999999</v>
+        <v>1750.6189999999999</v>
       </c>
       <c r="Q35">
-        <v>-26.12</v>
+        <v>7.2370000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2636.2710000000002</v>
+        <v>1121.627</v>
       </c>
       <c r="U35">
-        <v>43.003</v>
+        <v>22.46</v>
       </c>
       <c r="V35">
-        <v>104.919</v>
+        <v>72.585999999999999</v>
       </c>
       <c r="W35">
-        <v>-77.296000000000006</v>
+        <v>-38.479999999999997</v>
       </c>
       <c r="X35">
-        <v>-27.001999999999999</v>
+        <v>-34.444000000000003</v>
       </c>
       <c r="Y35">
-        <v>147.12799999999999</v>
+        <v>62.271999999999998</v>
       </c>
       <c r="Z35">
-        <v>0.68300000000000005</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="AA35">
-        <v>60.143999999999998</v>
+        <v>10.484</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>80.902000000000001</v>
+        <v>28.417000000000002</v>
       </c>
       <c r="D36">
-        <v>230.846</v>
+        <v>130.73699999999999</v>
       </c>
       <c r="E36">
-        <v>138.87</v>
+        <v>68.725999999999999</v>
       </c>
       <c r="F36">
-        <v>164.24199999999999</v>
+        <v>90.835999999999999</v>
       </c>
       <c r="G36">
-        <v>448.27100000000002</v>
+        <v>325.959</v>
       </c>
       <c r="H36">
-        <v>6383.741</v>
+        <v>3234.9560000000001</v>
       </c>
       <c r="I36">
-        <v>177.078</v>
+        <v>88.42</v>
       </c>
       <c r="J36">
-        <v>3157.7829999999999</v>
+        <v>1709.66</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>255.886</v>
+        <v>272.95</v>
       </c>
       <c r="O36">
-        <v>3738.3850000000002</v>
+        <v>2120.2269999999999</v>
       </c>
       <c r="P36">
-        <v>3304.3870000000002</v>
+        <v>1896.2329999999999</v>
       </c>
       <c r="Q36">
-        <v>58.057000000000002</v>
+        <v>147.59899999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2645.3560000000002</v>
+        <v>1114.729</v>
       </c>
       <c r="U36">
-        <v>105.90300000000001</v>
+        <v>170.059</v>
       </c>
       <c r="V36">
-        <v>137.36799999999999</v>
+        <v>73.623000000000005</v>
       </c>
       <c r="W36">
-        <v>-77.668999999999997</v>
+        <v>-38.527999999999999</v>
       </c>
       <c r="X36">
-        <v>-69.98</v>
+        <v>98.058999999999997</v>
       </c>
       <c r="Y36">
-        <v>146.60400000000001</v>
+        <v>62.271999999999998</v>
       </c>
       <c r="Z36">
-        <v>-0.28899999999999998</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="AA36">
-        <v>80.902000000000001</v>
+        <v>28.417000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>65.465000000000003</v>
+        <v>27.433</v>
       </c>
       <c r="D37">
-        <v>233.69800000000001</v>
+        <v>131.465</v>
       </c>
       <c r="E37">
-        <v>143.85499999999999</v>
+        <v>72.188000000000002</v>
       </c>
       <c r="F37">
-        <v>150.184</v>
+        <v>92.613</v>
       </c>
       <c r="G37">
-        <v>545.875</v>
+        <v>576.14800000000002</v>
       </c>
       <c r="H37">
-        <v>6607.5649999999996</v>
+        <v>3480.2849999999999</v>
       </c>
       <c r="I37">
-        <v>221.78100000000001</v>
+        <v>88.997</v>
       </c>
       <c r="J37">
-        <v>3276.9110000000001</v>
+        <v>1855.991</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>303.25799999999998</v>
+        <v>275.108</v>
       </c>
       <c r="O37">
-        <v>3912.1619999999998</v>
+        <v>2266.02</v>
       </c>
       <c r="P37">
-        <v>3423.0079999999998</v>
+        <v>2042.2170000000001</v>
       </c>
       <c r="Q37">
-        <v>66.647000000000006</v>
+        <v>238.369</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2695.4029999999998</v>
+        <v>1214.2650000000001</v>
       </c>
       <c r="U37">
-        <v>162.54300000000001</v>
+        <v>408.428</v>
       </c>
       <c r="V37">
-        <v>102.01900000000001</v>
+        <v>47.994999999999997</v>
       </c>
       <c r="W37">
-        <v>-78.02</v>
+        <v>-38.585000000000001</v>
       </c>
       <c r="X37">
-        <v>78.525999999999996</v>
+        <v>215.72800000000001</v>
       </c>
       <c r="Y37">
-        <v>146.09700000000001</v>
+        <v>62.271999999999998</v>
       </c>
       <c r="Z37">
-        <v>0.42399999999999999</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="AA37">
-        <v>65.465000000000003</v>
+        <v>27.433</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>147.35499999999999</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>238.43899999999999</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>152.572</v>
+        <v>72.191000000000003</v>
       </c>
       <c r="F38">
-        <v>169.173</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>491.36700000000002</v>
+        <v>306.84500000000003</v>
       </c>
       <c r="H38">
-        <v>6794.9920000000002</v>
+        <v>3222.3090000000002</v>
       </c>
       <c r="I38">
-        <v>252.50299999999999</v>
+        <v>84.661000000000001</v>
       </c>
       <c r="J38">
-        <v>3356.5940000000001</v>
+        <v>1731.5730000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>337.17899999999997</v>
+        <v>149.86099999999999</v>
       </c>
       <c r="O38">
-        <v>4019.1019999999999</v>
+        <v>2013.2460000000001</v>
       </c>
       <c r="P38">
-        <v>3502.2840000000001</v>
+        <v>1793.848</v>
       </c>
       <c r="Q38">
-        <v>-53.302</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="T38">
-        <v>2775.89</v>
+        <v>1209.0630000000001</v>
       </c>
       <c r="U38">
-        <v>127.432</v>
+        <v>135.38900000000001</v>
       </c>
       <c r="V38">
-        <v>117.613</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>-80.664000000000001</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-81.649000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>145.69</v>
+        <v>62.274999999999999</v>
       </c>
       <c r="Z38">
-        <v>0.89500000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>147.35499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>54.762999999999998</v>
+        <v>29.22</v>
       </c>
       <c r="D39">
-        <v>230.393</v>
+        <v>138.517</v>
       </c>
       <c r="E39">
-        <v>153.24299999999999</v>
+        <v>70.953000000000003</v>
       </c>
       <c r="F39">
-        <v>157.017</v>
+        <v>93.525000000000006</v>
       </c>
       <c r="G39">
-        <v>1364.623</v>
+        <v>184.99199999999999</v>
       </c>
       <c r="H39">
-        <v>7759.9139999999998</v>
+        <v>3096.3440000000001</v>
       </c>
       <c r="I39">
-        <v>245.96799999999999</v>
+        <v>97.052000000000007</v>
       </c>
       <c r="J39">
-        <v>4288.8680000000004</v>
+        <v>1553.729</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1.524</v>
+        <v>-252.86600000000001</v>
       </c>
       <c r="N39">
-        <v>399.012</v>
+        <v>213.904</v>
       </c>
       <c r="O39">
-        <v>5000.7719999999999</v>
+        <v>1895.7829999999999</v>
       </c>
       <c r="P39">
-        <v>4506.1540000000005</v>
+        <v>1690.6869999999999</v>
       </c>
       <c r="Q39">
-        <v>865.81200000000001</v>
+        <v>-112.795</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2759.1419999999998</v>
+        <v>1200.5609999999999</v>
       </c>
       <c r="U39">
-        <v>994.68799999999999</v>
+        <v>22.594000000000001</v>
       </c>
       <c r="V39">
-        <v>118.749</v>
+        <v>57.960999999999999</v>
       </c>
       <c r="W39">
-        <v>-80.897999999999996</v>
+        <v>-40.552999999999997</v>
       </c>
       <c r="X39">
-        <v>898.89499999999998</v>
+        <v>-145.52099999999999</v>
       </c>
       <c r="Y39">
-        <v>146.14099999999999</v>
+        <v>60.966999999999999</v>
       </c>
       <c r="Z39">
-        <v>0.71299999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="AA39">
-        <v>54.762999999999998</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>10.507</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>172.35499999999999</v>
+        <v>133.404</v>
       </c>
       <c r="E40">
-        <v>167.64099999999999</v>
+        <v>72.813999999999993</v>
       </c>
       <c r="F40">
-        <v>105.339</v>
+        <v>93.064999999999998</v>
       </c>
       <c r="G40">
-        <v>1353.973</v>
+        <v>183.25800000000001</v>
       </c>
       <c r="H40">
-        <v>7789.93</v>
+        <v>3103.645</v>
       </c>
       <c r="I40">
-        <v>244.482</v>
+        <v>106.771</v>
       </c>
       <c r="J40">
-        <v>4398.3419999999996</v>
+        <v>1560.5039999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>396.08600000000001</v>
+        <v>223.346</v>
       </c>
       <c r="O40">
-        <v>5099.2460000000001</v>
+        <v>1909.24</v>
       </c>
       <c r="P40">
-        <v>4613.6139999999996</v>
+        <v>1697.1379999999999</v>
       </c>
       <c r="Q40">
-        <v>-18.189</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2690.6840000000002</v>
+        <v>1194.405</v>
       </c>
       <c r="U40">
-        <v>980.03899999999999</v>
+        <v>23.556999999999999</v>
       </c>
       <c r="V40">
-        <v>62.633000000000003</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-80.975999999999999</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>24.544</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>145.583</v>
+        <v>60.966999999999999</v>
       </c>
       <c r="Z40">
-        <v>-0.78100000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>10.507</v>
+        <v>31.114000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-28.289000000000001</v>
+        <v>29.64</v>
       </c>
       <c r="D41">
-        <v>206.57599999999999</v>
+        <v>133.571</v>
       </c>
       <c r="E41">
-        <v>164.88200000000001</v>
+        <v>74.442999999999998</v>
       </c>
       <c r="F41">
-        <v>134.22399999999999</v>
+        <v>91.355999999999995</v>
       </c>
       <c r="G41">
-        <v>1257.1980000000001</v>
+        <v>189.24199999999999</v>
       </c>
       <c r="H41">
-        <v>7711.2929999999997</v>
+        <v>3127.1590000000001</v>
       </c>
       <c r="I41">
-        <v>276.39600000000002</v>
+        <v>96.09</v>
       </c>
       <c r="J41">
-        <v>4398.9690000000001</v>
+        <v>1557.883</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>426.709</v>
+        <v>256.38299999999998</v>
       </c>
       <c r="O41">
-        <v>5133.4880000000003</v>
+        <v>1940.2829999999999</v>
       </c>
       <c r="P41">
-        <v>4611.567</v>
+        <v>1721.1890000000001</v>
       </c>
       <c r="Q41">
-        <v>-112.798</v>
+        <v>-14.382999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2577.8049999999998</v>
+        <v>1186.876</v>
       </c>
       <c r="U41">
-        <v>863.279</v>
+        <v>9.1739999999999995</v>
       </c>
       <c r="V41">
-        <v>87.04</v>
+        <v>50.34</v>
       </c>
       <c r="W41">
-        <v>-80.978999999999999</v>
+        <v>-40.658000000000001</v>
       </c>
       <c r="X41">
-        <v>-83.463999999999999</v>
+        <v>-15.363</v>
       </c>
       <c r="Y41">
-        <v>144.97300000000001</v>
+        <v>60.966999999999999</v>
       </c>
       <c r="Z41">
-        <v>-0.69</v>
+        <v>-0.30099999999999999</v>
       </c>
       <c r="AA41">
-        <v>-28.289000000000001</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>32.816000000000003</v>
+      </c>
+      <c r="D42">
+        <v>137.88800000000001</v>
+      </c>
+      <c r="E42">
+        <v>68.997</v>
+      </c>
+      <c r="F42">
+        <v>100.869</v>
+      </c>
+      <c r="G42">
+        <v>184.78</v>
+      </c>
+      <c r="H42">
+        <v>3159.5529999999999</v>
+      </c>
+      <c r="I42">
+        <v>79.174000000000007</v>
+      </c>
+      <c r="J42">
+        <v>1630.2090000000001</v>
+      </c>
+      <c r="K42">
+        <v>77</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>221.17500000000001</v>
+      </c>
+      <c r="O42">
+        <v>1978.423</v>
+      </c>
+      <c r="P42">
+        <v>1767.1489999999999</v>
+      </c>
+      <c r="Q42">
+        <v>6.6230000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>238</v>
+      </c>
+      <c r="T42">
+        <v>1181.1300000000001</v>
+      </c>
+      <c r="U42">
+        <v>15.797000000000001</v>
+      </c>
+      <c r="V42">
+        <v>77.05</v>
+      </c>
+      <c r="W42">
+        <v>-41.296999999999997</v>
+      </c>
+      <c r="X42">
+        <v>5.3559999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>59.94</v>
+      </c>
+      <c r="Z42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA42">
+        <v>32.816000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>31.186</v>
+      </c>
+      <c r="D43">
+        <v>137.97200000000001</v>
+      </c>
+      <c r="E43">
+        <v>71.408000000000001</v>
+      </c>
+      <c r="F43">
+        <v>93.162999999999997</v>
+      </c>
+      <c r="G43">
+        <v>187.041</v>
+      </c>
+      <c r="H43">
+        <v>3217.4609999999998</v>
+      </c>
+      <c r="I43">
+        <v>80.537000000000006</v>
+      </c>
+      <c r="J43">
+        <v>1551.796</v>
+      </c>
+      <c r="K43">
+        <v>192</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-120.29900000000001</v>
+      </c>
+      <c r="N43">
+        <v>316.30599999999998</v>
+      </c>
+      <c r="O43">
+        <v>1995.7919999999999</v>
+      </c>
+      <c r="P43">
+        <v>1804.0550000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-5.7960000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1221.6690000000001</v>
+      </c>
+      <c r="U43">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="V43">
+        <v>45.999000000000002</v>
+      </c>
+      <c r="W43">
+        <v>-41.357999999999997</v>
+      </c>
+      <c r="X43">
+        <v>1.113</v>
+      </c>
+      <c r="Y43">
+        <v>58.536999999999999</v>
+      </c>
+      <c r="Z43">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>31.186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>34.756999999999998</v>
+      </c>
+      <c r="D44">
+        <v>136.72399999999999</v>
+      </c>
+      <c r="E44">
+        <v>73.917000000000002</v>
+      </c>
+      <c r="F44">
+        <v>96.043999999999997</v>
+      </c>
+      <c r="G44">
+        <v>192.10400000000001</v>
+      </c>
+      <c r="H44">
+        <v>3220.6680000000001</v>
+      </c>
+      <c r="I44">
+        <v>86.552000000000007</v>
+      </c>
+      <c r="J44">
+        <v>1511.895</v>
+      </c>
+      <c r="K44">
+        <v>189</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>318.86399999999998</v>
+      </c>
+      <c r="O44">
+        <v>1956.7719999999999</v>
+      </c>
+      <c r="P44">
+        <v>1760.2919999999999</v>
+      </c>
+      <c r="Q44">
+        <v>9.8469999999999995</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1263.896</v>
+      </c>
+      <c r="U44">
+        <v>19.847999999999999</v>
+      </c>
+      <c r="V44">
+        <v>72.698999999999998</v>
+      </c>
+      <c r="W44">
+        <v>-41.74</v>
+      </c>
+      <c r="X44">
+        <v>-39</v>
+      </c>
+      <c r="Y44">
+        <v>58.536999999999999</v>
+      </c>
+      <c r="Z44">
+        <v>-6.6920000000000002</v>
+      </c>
+      <c r="AA44">
+        <v>34.756999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>47.052999999999997</v>
+      </c>
+      <c r="D45">
+        <v>138.09800000000001</v>
+      </c>
+      <c r="E45">
+        <v>78.503</v>
+      </c>
+      <c r="F45">
+        <v>96.456000000000003</v>
+      </c>
+      <c r="G45">
+        <v>209.994</v>
+      </c>
+      <c r="H45">
+        <v>3254.848</v>
+      </c>
+      <c r="I45">
+        <v>89.623000000000005</v>
+      </c>
+      <c r="J45">
+        <v>1492.42</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>309.18299999999999</v>
+      </c>
+      <c r="O45">
+        <v>1931.721</v>
+      </c>
+      <c r="P45">
+        <v>1730.875</v>
+      </c>
+      <c r="Q45">
+        <v>2.222</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1323.127</v>
+      </c>
+      <c r="U45">
+        <v>22.07</v>
+      </c>
+      <c r="V45">
+        <v>54.253</v>
+      </c>
+      <c r="W45">
+        <v>-42.207999999999998</v>
+      </c>
+      <c r="X45">
+        <v>-27.478000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>63.09</v>
+      </c>
+      <c r="Z45">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="AA45">
+        <v>47.052999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>30.920999999999999</v>
+      </c>
+      <c r="D46">
+        <v>142.07300000000001</v>
+      </c>
+      <c r="E46">
+        <v>75.921000000000006</v>
+      </c>
+      <c r="F46">
+        <v>105.90300000000001</v>
+      </c>
+      <c r="G46">
+        <v>245.31899999999999</v>
+      </c>
+      <c r="H46">
+        <v>3666.21</v>
+      </c>
+      <c r="I46">
+        <v>93.62</v>
+      </c>
+      <c r="J46">
+        <v>2047.317</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>148.88900000000001</v>
+      </c>
+      <c r="O46">
+        <v>2340.2809999999999</v>
+      </c>
+      <c r="P46">
+        <v>2114.35</v>
+      </c>
+      <c r="Q46">
+        <v>45.735999999999997</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>254</v>
+      </c>
+      <c r="T46">
+        <v>1325.9290000000001</v>
+      </c>
+      <c r="U46">
+        <v>67.805999999999997</v>
+      </c>
+      <c r="V46">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="W46">
+        <v>-43.948</v>
+      </c>
+      <c r="X46">
+        <v>69.031999999999996</v>
+      </c>
+      <c r="Y46">
+        <v>63.093000000000004</v>
+      </c>
+      <c r="Z46">
+        <v>35.244999999999997</v>
+      </c>
+      <c r="AA46">
+        <v>30.920999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>42.985999999999997</v>
+      </c>
+      <c r="D47">
+        <v>146.59</v>
+      </c>
+      <c r="E47">
+        <v>75.870999999999995</v>
+      </c>
+      <c r="F47">
+        <v>104.423</v>
+      </c>
+      <c r="G47">
+        <v>265.964</v>
+      </c>
+      <c r="H47">
+        <v>3668.848</v>
+      </c>
+      <c r="I47">
+        <v>89.77</v>
+      </c>
+      <c r="J47">
+        <v>1818.1220000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-3.2919999999999998</v>
+      </c>
+      <c r="N47">
+        <v>362.28699999999998</v>
+      </c>
+      <c r="O47">
+        <v>2320.31</v>
+      </c>
+      <c r="P47">
+        <v>2117.8560000000002</v>
+      </c>
+      <c r="Q47">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1348.538</v>
+      </c>
+      <c r="U47">
+        <v>69.182000000000002</v>
+      </c>
+      <c r="V47">
+        <v>69.456999999999994</v>
+      </c>
+      <c r="W47">
+        <v>-43.497</v>
+      </c>
+      <c r="X47">
+        <v>-28.798999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>71.69</v>
+      </c>
+      <c r="Z47">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>42.985999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>76.600999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>273.67700000000002</v>
+      </c>
+      <c r="H48">
+        <v>3680.9290000000001</v>
+      </c>
+      <c r="I48">
+        <v>100.411</v>
+      </c>
+      <c r="J48">
+        <v>1830.557</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>363.44799999999998</v>
+      </c>
+      <c r="O48">
+        <v>2332.6129999999998</v>
+      </c>
+      <c r="P48">
+        <v>2120.6959999999999</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1348.316</v>
+      </c>
+      <c r="U48">
+        <v>82.774000000000001</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>71.69</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>38.643999999999998</v>
+      </c>
+      <c r="D49">
+        <v>157.72200000000001</v>
+      </c>
+      <c r="E49">
+        <v>82.152000000000001</v>
+      </c>
+      <c r="F49">
+        <v>110.84</v>
+      </c>
+      <c r="G49">
+        <v>357.42399999999998</v>
+      </c>
+      <c r="H49">
+        <v>3804.3389999999999</v>
+      </c>
+      <c r="I49">
+        <v>108.033</v>
+      </c>
+      <c r="J49">
+        <v>2044.0119999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>231.50200000000001</v>
+      </c>
+      <c r="O49">
+        <v>2410.5659999999998</v>
+      </c>
+      <c r="P49">
+        <v>2191.6149999999998</v>
+      </c>
+      <c r="Q49">
+        <v>64.906000000000006</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1393.7729999999999</v>
+      </c>
+      <c r="U49">
+        <v>147.68</v>
+      </c>
+      <c r="V49">
+        <v>59.26</v>
+      </c>
+      <c r="W49">
+        <v>-43.912999999999997</v>
+      </c>
+      <c r="X49">
+        <v>75.733000000000004</v>
+      </c>
+      <c r="Y49">
+        <v>71.69</v>
+      </c>
+      <c r="Z49">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>38.643999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>37.692</v>
+      </c>
+      <c r="D50">
+        <v>156.31299999999999</v>
+      </c>
+      <c r="E50">
+        <v>73.861000000000004</v>
+      </c>
+      <c r="F50">
+        <v>116.85299999999999</v>
+      </c>
+      <c r="G50">
+        <v>243.155</v>
+      </c>
+      <c r="H50">
+        <v>3898.5650000000001</v>
+      </c>
+      <c r="I50">
+        <v>108.541</v>
+      </c>
+      <c r="J50">
+        <v>2136.9090000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>168.614</v>
+      </c>
+      <c r="O50">
+        <v>2493.5520000000001</v>
+      </c>
+      <c r="P50">
+        <v>2220.9899999999998</v>
+      </c>
+      <c r="Q50">
+        <v>-110.69199999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>256</v>
+      </c>
+      <c r="T50">
+        <v>1405.0129999999999</v>
+      </c>
+      <c r="U50">
+        <v>36.988</v>
+      </c>
+      <c r="V50">
+        <v>87.477999999999994</v>
+      </c>
+      <c r="W50">
+        <v>-46.847999999999999</v>
+      </c>
+      <c r="X50">
+        <v>-68.046999999999997</v>
+      </c>
+      <c r="Y50">
+        <v>71.692999999999998</v>
+      </c>
+      <c r="Z50">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="AA50">
+        <v>37.692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>34.588000000000001</v>
+      </c>
+      <c r="D51">
+        <v>157.46100000000001</v>
+      </c>
+      <c r="E51">
+        <v>77.153999999999996</v>
+      </c>
+      <c r="F51">
+        <v>110.38800000000001</v>
+      </c>
+      <c r="G51">
+        <v>239.62</v>
+      </c>
+      <c r="H51">
+        <v>3905.9319999999998</v>
+      </c>
+      <c r="I51">
+        <v>115.94199999999999</v>
+      </c>
+      <c r="J51">
+        <v>1960.684</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-12.095000000000001</v>
+      </c>
+      <c r="N51">
+        <v>338.23500000000001</v>
+      </c>
+      <c r="O51">
+        <v>2478.1529999999998</v>
+      </c>
+      <c r="P51">
+        <v>2206.6680000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-5.7140000000000004</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1427.779</v>
+      </c>
+      <c r="U51">
+        <v>31.274000000000001</v>
+      </c>
+      <c r="V51">
+        <v>67.692999999999998</v>
+      </c>
+      <c r="W51">
+        <v>-46.884</v>
+      </c>
+      <c r="X51">
+        <v>-27.731999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>71.668000000000006</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>34.588000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>37.539000000000001</v>
+      </c>
+      <c r="D52">
+        <v>157.76</v>
+      </c>
+      <c r="E52">
+        <v>84.102999999999994</v>
+      </c>
+      <c r="F52">
+        <v>111.919</v>
+      </c>
+      <c r="G52">
+        <v>318.27300000000002</v>
+      </c>
+      <c r="H52">
+        <v>4085.203</v>
+      </c>
+      <c r="I52">
+        <v>136.56399999999999</v>
+      </c>
+      <c r="J52">
+        <v>2232.1080000000002</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>193.43</v>
+      </c>
+      <c r="O52">
+        <v>2607.2660000000001</v>
+      </c>
+      <c r="P52">
+        <v>2312.346</v>
+      </c>
+      <c r="Q52">
+        <v>77.091999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1477.9369999999999</v>
+      </c>
+      <c r="U52">
+        <v>108.366</v>
+      </c>
+      <c r="V52">
+        <v>79.003</v>
+      </c>
+      <c r="W52">
+        <v>-47.311999999999998</v>
+      </c>
+      <c r="X52">
+        <v>110.592</v>
+      </c>
+      <c r="Y52">
+        <v>71.668000000000006</v>
+      </c>
+      <c r="Z52">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA52">
+        <v>37.539000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>159.411</v>
+      </c>
+      <c r="E53">
+        <v>87.284000000000006</v>
+      </c>
+      <c r="F53">
+        <v>111.96599999999999</v>
+      </c>
+      <c r="G53">
+        <v>347.94600000000003</v>
+      </c>
+      <c r="H53">
+        <v>4159.4759999999997</v>
+      </c>
+      <c r="I53">
+        <v>157.095</v>
+      </c>
+      <c r="J53">
+        <v>2231.5210000000002</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>215.489</v>
+      </c>
+      <c r="O53">
+        <v>2634.5459999999998</v>
+      </c>
+      <c r="P53">
+        <v>2309.7370000000001</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1524.93</v>
+      </c>
+      <c r="U53">
+        <v>127.831</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>71.668000000000006</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>62.097999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>28.456</v>
+      </c>
+      <c r="D54">
+        <v>164.279</v>
+      </c>
+      <c r="E54">
+        <v>84.837999999999994</v>
+      </c>
+      <c r="F54">
+        <v>122.848</v>
+      </c>
+      <c r="G54">
+        <v>304.02699999999999</v>
+      </c>
+      <c r="H54">
+        <v>4219.2939999999999</v>
+      </c>
+      <c r="I54">
+        <v>154.85300000000001</v>
+      </c>
+      <c r="J54">
+        <v>2250.1909999999998</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>208.655</v>
+      </c>
+      <c r="O54">
+        <v>2643.5720000000001</v>
+      </c>
+      <c r="P54">
+        <v>2323.279</v>
+      </c>
+      <c r="Q54">
+        <v>-38.904000000000003</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>266</v>
+      </c>
+      <c r="T54">
+        <v>1575.722</v>
+      </c>
+      <c r="U54">
+        <v>88.927000000000007</v>
+      </c>
+      <c r="V54">
+        <v>87.77</v>
+      </c>
+      <c r="W54">
+        <v>-51.167000000000002</v>
+      </c>
+      <c r="X54">
+        <v>17.036999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>71.671000000000006</v>
+      </c>
+      <c r="Z54">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="AA54">
+        <v>28.456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>38.753</v>
+      </c>
+      <c r="D55">
+        <v>171.041</v>
+      </c>
+      <c r="E55">
+        <v>92.769000000000005</v>
+      </c>
+      <c r="F55">
+        <v>115.211</v>
+      </c>
+      <c r="G55">
+        <v>299.38900000000001</v>
+      </c>
+      <c r="H55">
+        <v>4405.6469999999999</v>
+      </c>
+      <c r="I55">
+        <v>155.39699999999999</v>
+      </c>
+      <c r="J55">
+        <v>2280.585</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-2.8420000000000001</v>
+      </c>
+      <c r="N55">
+        <v>250.376</v>
+      </c>
+      <c r="O55">
+        <v>2721.011</v>
+      </c>
+      <c r="P55">
+        <v>2393.8969999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-13.228</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1684.636</v>
+      </c>
+      <c r="U55">
+        <v>75.698999999999998</v>
+      </c>
+      <c r="V55">
+        <v>79.162000000000006</v>
+      </c>
+      <c r="W55">
+        <v>-51.713999999999999</v>
+      </c>
+      <c r="X55">
+        <v>-4.3499999999999996</v>
+      </c>
+      <c r="Y55">
+        <v>71.643000000000001</v>
+      </c>
+      <c r="Z55">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AA55">
+        <v>38.753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>43.545000000000002</v>
+      </c>
+      <c r="D56">
+        <v>168.197</v>
+      </c>
+      <c r="E56">
+        <v>97.741</v>
+      </c>
+      <c r="F56">
+        <v>117.628</v>
+      </c>
+      <c r="G56">
+        <v>267.61700000000002</v>
+      </c>
+      <c r="H56">
+        <v>4431.4849999999997</v>
+      </c>
+      <c r="I56">
+        <v>164.55500000000001</v>
+      </c>
+      <c r="J56">
+        <v>2280.8679999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>227.48599999999999</v>
+      </c>
+      <c r="O56">
+        <v>2702.741</v>
+      </c>
+      <c r="P56">
+        <v>2361.8110000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-34.387</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1728.7439999999999</v>
+      </c>
+      <c r="U56">
+        <v>41.311999999999998</v>
+      </c>
+      <c r="V56">
+        <v>92.906999999999996</v>
+      </c>
+      <c r="W56">
+        <v>-52.142000000000003</v>
+      </c>
+      <c r="X56">
+        <v>-25.212</v>
+      </c>
+      <c r="Y56">
+        <v>71.643000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>-3.3719999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>43.545000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>47.075000000000003</v>
+      </c>
+      <c r="D57">
+        <v>171.38399999999999</v>
+      </c>
+      <c r="E57">
+        <v>104.746</v>
+      </c>
+      <c r="F57">
+        <v>119.102</v>
+      </c>
+      <c r="G57">
+        <v>275.39</v>
+      </c>
+      <c r="H57">
+        <v>4479.3980000000001</v>
+      </c>
+      <c r="I57">
+        <v>158.44499999999999</v>
+      </c>
+      <c r="J57">
+        <v>2290.5790000000002</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>223.124</v>
+      </c>
+      <c r="O57">
+        <v>2706.9340000000002</v>
+      </c>
+      <c r="P57">
+        <v>2366.6959999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-17.395</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1772.4639999999999</v>
+      </c>
+      <c r="U57">
+        <v>23.917000000000002</v>
+      </c>
+      <c r="V57">
+        <v>69.777000000000001</v>
+      </c>
+      <c r="W57">
+        <v>-52.456000000000003</v>
+      </c>
+      <c r="X57">
+        <v>3.63</v>
+      </c>
+      <c r="Y57">
+        <v>71.643000000000001</v>
+      </c>
+      <c r="Z57">
+        <v>-3.23</v>
+      </c>
+      <c r="AA57">
+        <v>47.075000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>35.161999999999999</v>
+      </c>
+      <c r="D58">
+        <v>176.71100000000001</v>
+      </c>
+      <c r="E58">
+        <v>93.290999999999997</v>
+      </c>
+      <c r="F58">
+        <v>133.001</v>
+      </c>
+      <c r="G58">
+        <v>288.00900000000001</v>
+      </c>
+      <c r="H58">
+        <v>4546.87</v>
+      </c>
+      <c r="I58">
+        <v>134.97</v>
+      </c>
+      <c r="J58">
+        <v>2338.0300000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>206.30500000000001</v>
+      </c>
+      <c r="O58">
+        <v>2735.261</v>
+      </c>
+      <c r="P58">
+        <v>2413.192</v>
+      </c>
+      <c r="Q58">
+        <v>24.033999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>269</v>
+      </c>
+      <c r="T58">
+        <v>1811.6089999999999</v>
+      </c>
+      <c r="U58">
+        <v>47.951000000000001</v>
+      </c>
+      <c r="V58">
+        <v>104.28400000000001</v>
+      </c>
+      <c r="W58">
+        <v>-58.904000000000003</v>
+      </c>
+      <c r="X58">
+        <v>34.975999999999999</v>
+      </c>
+      <c r="Y58">
+        <v>71.647000000000006</v>
+      </c>
+      <c r="Z58">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="AA58">
+        <v>35.161999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>46.186</v>
+      </c>
+      <c r="D59">
+        <v>185.012</v>
+      </c>
+      <c r="E59">
+        <v>100.98099999999999</v>
+      </c>
+      <c r="F59">
+        <v>123.179</v>
+      </c>
+      <c r="G59">
+        <v>439.34</v>
+      </c>
+      <c r="H59">
+        <v>4780.75</v>
+      </c>
+      <c r="I59">
+        <v>143.40299999999999</v>
+      </c>
+      <c r="J59">
+        <v>2212.893</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-11.035</v>
+      </c>
+      <c r="N59">
+        <v>562.30100000000004</v>
+      </c>
+      <c r="O59">
+        <v>2969.6790000000001</v>
+      </c>
+      <c r="P59">
+        <v>2642.7089999999998</v>
+      </c>
+      <c r="Q59">
+        <v>123.486</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1811.0709999999999</v>
+      </c>
+      <c r="U59">
+        <v>171.43700000000001</v>
+      </c>
+      <c r="V59">
+        <v>81.986000000000004</v>
+      </c>
+      <c r="W59">
+        <v>-59.33</v>
+      </c>
+      <c r="X59">
+        <v>136.44499999999999</v>
+      </c>
+      <c r="Y59">
+        <v>71.616</v>
+      </c>
+      <c r="Z59">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="AA59">
+        <v>46.186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>43.631999999999998</v>
+      </c>
+      <c r="D60">
+        <v>181.86699999999999</v>
+      </c>
+      <c r="E60">
+        <v>106.218</v>
+      </c>
+      <c r="F60">
+        <v>128.577</v>
+      </c>
+      <c r="G60">
+        <v>285.97800000000001</v>
+      </c>
+      <c r="H60">
+        <v>4733.8379999999997</v>
+      </c>
+      <c r="I60">
+        <v>133.035</v>
+      </c>
+      <c r="J60">
+        <v>2318.12</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>348.70499999999998</v>
+      </c>
+      <c r="O60">
+        <v>2871.9119999999998</v>
+      </c>
+      <c r="P60">
+        <v>2544.4140000000002</v>
+      </c>
+      <c r="Q60">
+        <v>-149.262</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1861.9259999999999</v>
+      </c>
+      <c r="U60">
+        <v>22.175000000000001</v>
+      </c>
+      <c r="V60">
+        <v>91.662000000000006</v>
+      </c>
+      <c r="W60">
+        <v>-59.390999999999998</v>
+      </c>
+      <c r="X60">
+        <v>-119.518</v>
+      </c>
+      <c r="Y60">
+        <v>71.616</v>
+      </c>
+      <c r="Z60">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>43.631999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>52.447000000000003</v>
+      </c>
+      <c r="D61">
+        <v>185.61199999999999</v>
+      </c>
+      <c r="E61">
+        <v>112.267</v>
+      </c>
+      <c r="F61">
+        <v>129.369</v>
+      </c>
+      <c r="G61">
+        <v>305.53399999999999</v>
+      </c>
+      <c r="H61">
+        <v>4783.8029999999999</v>
+      </c>
+      <c r="I61">
+        <v>147.63300000000001</v>
+      </c>
+      <c r="J61">
+        <v>2442.0990000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>240.16900000000001</v>
+      </c>
+      <c r="O61">
+        <v>2885.056</v>
+      </c>
+      <c r="P61">
+        <v>2539.9549999999999</v>
+      </c>
+      <c r="Q61">
+        <v>-9.3109999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1898.7470000000001</v>
+      </c>
+      <c r="U61">
+        <v>12.864000000000001</v>
+      </c>
+      <c r="V61">
+        <v>87.501999999999995</v>
+      </c>
+      <c r="W61">
+        <v>-59.692</v>
+      </c>
+      <c r="X61">
+        <v>-26.684999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>71.616</v>
+      </c>
+      <c r="Z61">
+        <v>-1.4059999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>52.447000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>67.953999999999994</v>
+      </c>
+      <c r="D62">
+        <v>192.93700000000001</v>
+      </c>
+      <c r="E62">
+        <v>110.402</v>
+      </c>
+      <c r="F62">
+        <v>139.93199999999999</v>
+      </c>
+      <c r="G62">
+        <v>306.52999999999997</v>
+      </c>
+      <c r="H62">
+        <v>4896.5590000000002</v>
+      </c>
+      <c r="I62">
+        <v>134.732</v>
+      </c>
+      <c r="J62">
+        <v>2555.596</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>212.87</v>
+      </c>
+      <c r="O62">
+        <v>2977.3119999999999</v>
+      </c>
+      <c r="P62">
+        <v>2631.3159999999998</v>
+      </c>
+      <c r="Q62">
+        <v>8.1820000000000004</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>299</v>
+      </c>
+      <c r="T62">
+        <v>1919.2470000000001</v>
+      </c>
+      <c r="U62">
+        <v>21.045999999999999</v>
+      </c>
+      <c r="V62">
+        <v>98.685000000000002</v>
+      </c>
+      <c r="W62">
+        <v>-64.900999999999996</v>
+      </c>
+      <c r="X62">
+        <v>-23.219000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>71.62</v>
+      </c>
+      <c r="Z62">
+        <v>-0.73499999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>67.953999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>76.954999999999998</v>
+      </c>
+      <c r="D63">
+        <v>198.38499999999999</v>
+      </c>
+      <c r="E63">
+        <v>113.749</v>
+      </c>
+      <c r="F63">
+        <v>132.77199999999999</v>
+      </c>
+      <c r="G63">
+        <v>324.31700000000001</v>
+      </c>
+      <c r="H63">
+        <v>5125.4570000000003</v>
+      </c>
+      <c r="I63">
+        <v>158.50700000000001</v>
+      </c>
+      <c r="J63">
+        <v>2553.3249999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1.923</v>
+      </c>
+      <c r="N63">
+        <v>267.411</v>
+      </c>
+      <c r="O63">
+        <v>3030.2840000000001</v>
+      </c>
+      <c r="P63">
+        <v>2666.2220000000002</v>
+      </c>
+      <c r="Q63">
+        <v>-1.33</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2095.1729999999998</v>
+      </c>
+      <c r="U63">
+        <v>19.716000000000001</v>
+      </c>
+      <c r="V63">
+        <v>104.879</v>
+      </c>
+      <c r="W63">
+        <v>-64.884</v>
+      </c>
+      <c r="X63">
+        <v>95.477999999999994</v>
+      </c>
+      <c r="Y63">
+        <v>71.585999999999999</v>
+      </c>
+      <c r="Z63">
+        <v>-0.69699999999999995</v>
+      </c>
+      <c r="AA63">
+        <v>76.954999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>55.941000000000003</v>
+      </c>
+      <c r="D64">
+        <v>197.98099999999999</v>
+      </c>
+      <c r="E64">
+        <v>114.431</v>
+      </c>
+      <c r="F64">
+        <v>137.60599999999999</v>
+      </c>
+      <c r="G64">
+        <v>322.90300000000002</v>
+      </c>
+      <c r="H64">
+        <v>5188.4679999999998</v>
+      </c>
+      <c r="I64">
+        <v>164.68199999999999</v>
+      </c>
+      <c r="J64">
+        <v>2590.4899999999998</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>242.79</v>
+      </c>
+      <c r="O64">
+        <v>3039.38</v>
+      </c>
+      <c r="P64">
+        <v>2672.2530000000002</v>
+      </c>
+      <c r="Q64">
+        <v>-1.0940000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2149.0880000000002</v>
+      </c>
+      <c r="U64">
+        <v>18.622</v>
+      </c>
+      <c r="V64">
+        <v>98.727999999999994</v>
+      </c>
+      <c r="W64">
+        <v>-66.191999999999993</v>
+      </c>
+      <c r="X64">
+        <v>-0.60699999999999998</v>
+      </c>
+      <c r="Y64">
+        <v>71.585999999999999</v>
+      </c>
+      <c r="Z64">
+        <v>2.4329999999999998</v>
+      </c>
+      <c r="AA64">
+        <v>55.941000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>58.976999999999997</v>
+      </c>
+      <c r="D65">
+        <v>201.15700000000001</v>
+      </c>
+      <c r="E65">
+        <v>120.13500000000001</v>
+      </c>
+      <c r="F65">
+        <v>137.596</v>
+      </c>
+      <c r="G65">
+        <v>433.18200000000002</v>
+      </c>
+      <c r="H65">
+        <v>5397.3370000000004</v>
+      </c>
+      <c r="I65">
+        <v>178.613</v>
+      </c>
+      <c r="J65">
+        <v>2736.7</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>256.51600000000002</v>
+      </c>
+      <c r="O65">
+        <v>3200.261</v>
+      </c>
+      <c r="P65">
+        <v>2814.9580000000001</v>
+      </c>
+      <c r="Q65">
+        <v>82.659000000000006</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2197.076</v>
+      </c>
+      <c r="U65">
+        <v>101.28100000000001</v>
+      </c>
+      <c r="V65">
+        <v>89.801000000000002</v>
+      </c>
+      <c r="W65">
+        <v>-66.674000000000007</v>
+      </c>
+      <c r="X65">
+        <v>130.37299999999999</v>
+      </c>
+      <c r="Y65">
+        <v>71.585999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>-1.32</v>
+      </c>
+      <c r="AA65">
+        <v>58.976999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>58.036999999999999</v>
+      </c>
+      <c r="D66">
+        <v>204.11799999999999</v>
+      </c>
+      <c r="E66">
+        <v>116.749</v>
+      </c>
+      <c r="F66">
+        <v>148.57499999999999</v>
+      </c>
+      <c r="G66">
+        <v>319.11700000000002</v>
+      </c>
+      <c r="H66">
+        <v>5423.2790000000005</v>
+      </c>
+      <c r="I66">
+        <v>196.35599999999999</v>
+      </c>
+      <c r="J66">
+        <v>2726.8620000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>273.19600000000003</v>
+      </c>
+      <c r="O66">
+        <v>3203.75</v>
+      </c>
+      <c r="P66">
+        <v>2801.0520000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-77.912999999999997</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>312</v>
+      </c>
+      <c r="T66">
+        <v>2219.529</v>
+      </c>
+      <c r="U66">
+        <v>23.367999999999999</v>
+      </c>
+      <c r="V66">
+        <v>130.297</v>
+      </c>
+      <c r="W66">
+        <v>-69.944000000000003</v>
+      </c>
+      <c r="X66">
+        <v>-56.405999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>71.59</v>
+      </c>
+      <c r="Z66">
+        <v>-3.726</v>
+      </c>
+      <c r="AA66">
+        <v>58.036999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>56.19</v>
+      </c>
+      <c r="D67">
+        <v>207.38900000000001</v>
+      </c>
+      <c r="E67">
+        <v>115.77500000000001</v>
+      </c>
+      <c r="F67">
+        <v>141.19</v>
+      </c>
+      <c r="G67">
+        <v>340.14100000000002</v>
+      </c>
+      <c r="H67">
+        <v>5656.2</v>
+      </c>
+      <c r="I67">
+        <v>190.40799999999999</v>
+      </c>
+      <c r="J67">
+        <v>2720.8339999999998</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1.5669999999999999</v>
+      </c>
+      <c r="N67">
+        <v>484.53100000000001</v>
+      </c>
+      <c r="O67">
+        <v>3438.395</v>
+      </c>
+      <c r="P67">
+        <v>3014.8620000000001</v>
+      </c>
+      <c r="Q67">
+        <v>-1.389</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2217.8049999999998</v>
+      </c>
+      <c r="U67">
+        <v>20.111999999999998</v>
+      </c>
+      <c r="V67">
+        <v>123.93300000000001</v>
+      </c>
+      <c r="W67">
+        <v>-70.117000000000004</v>
+      </c>
+      <c r="X67">
+        <v>153.95400000000001</v>
+      </c>
+      <c r="Y67">
+        <v>71.552000000000007</v>
+      </c>
+      <c r="Z67">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>56.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>76.290999999999997</v>
+      </c>
+      <c r="D68">
+        <v>207.935</v>
+      </c>
+      <c r="E68">
+        <v>168.99600000000001</v>
+      </c>
+      <c r="F68">
+        <v>144.285</v>
+      </c>
+      <c r="G68">
+        <v>453.5</v>
+      </c>
+      <c r="H68">
+        <v>5803.5029999999997</v>
+      </c>
+      <c r="I68">
+        <v>189.35900000000001</v>
+      </c>
+      <c r="J68">
+        <v>3018.741</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>314.86799999999999</v>
+      </c>
+      <c r="O68">
+        <v>3564.7809999999999</v>
+      </c>
+      <c r="P68">
+        <v>3144.0880000000002</v>
+      </c>
+      <c r="Q68">
+        <v>74.457999999999998</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2238.7220000000002</v>
+      </c>
+      <c r="U68">
+        <v>96.325999999999993</v>
+      </c>
+      <c r="V68">
+        <v>114.727</v>
+      </c>
+      <c r="W68">
+        <v>-70.33</v>
+      </c>
+      <c r="X68">
+        <v>67.153999999999996</v>
+      </c>
+      <c r="Y68">
+        <v>71.552000000000007</v>
+      </c>
+      <c r="Z68">
+        <v>1.36</v>
+      </c>
+      <c r="AA68">
+        <v>76.290999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>106.777</v>
+      </c>
+      <c r="D69">
+        <v>217.77099999999999</v>
+      </c>
+      <c r="E69">
+        <v>200.87799999999999</v>
+      </c>
+      <c r="F69">
+        <v>149.029</v>
+      </c>
+      <c r="G69">
+        <v>437.71800000000002</v>
+      </c>
+      <c r="H69">
+        <v>6221.1369999999997</v>
+      </c>
+      <c r="I69">
+        <v>205.74100000000001</v>
+      </c>
+      <c r="J69">
+        <v>3181.2890000000002</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>290.52800000000002</v>
+      </c>
+      <c r="O69">
+        <v>3735.5309999999999</v>
+      </c>
+      <c r="P69">
+        <v>3264.1619999999998</v>
+      </c>
+      <c r="Q69">
+        <v>-74.873999999999995</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2485.6060000000002</v>
+      </c>
+      <c r="U69">
+        <v>22.85</v>
+      </c>
+      <c r="V69">
+        <v>100.81100000000001</v>
+      </c>
+      <c r="W69">
+        <v>-70.397999999999996</v>
+      </c>
+      <c r="X69">
+        <v>147.01599999999999</v>
+      </c>
+      <c r="Y69">
+        <v>71.552000000000007</v>
+      </c>
+      <c r="Z69">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AA69">
+        <v>106.777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>50.655999999999999</v>
+      </c>
+      <c r="D70">
+        <v>223.83600000000001</v>
+      </c>
+      <c r="E70">
+        <v>209.87700000000001</v>
+      </c>
+      <c r="F70">
+        <v>158.70500000000001</v>
+      </c>
+      <c r="G70">
+        <v>408.98200000000003</v>
+      </c>
+      <c r="H70">
+        <v>6275.7550000000001</v>
+      </c>
+      <c r="I70">
+        <v>193.03200000000001</v>
+      </c>
+      <c r="J70">
+        <v>3213.21</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>272.26299999999998</v>
+      </c>
+      <c r="O70">
+        <v>3743.0839999999998</v>
+      </c>
+      <c r="P70">
+        <v>3284.7660000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-7.8440000000000003</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>311</v>
+      </c>
+      <c r="T70">
+        <v>2532.6709999999998</v>
+      </c>
+      <c r="U70">
+        <v>15.188000000000001</v>
+      </c>
+      <c r="V70">
+        <v>119.357</v>
+      </c>
+      <c r="W70">
+        <v>-72.150000000000006</v>
+      </c>
+      <c r="X70">
+        <v>1.321</v>
+      </c>
+      <c r="Y70">
+        <v>71.555999999999997</v>
+      </c>
+      <c r="Z70">
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="AA70">
+        <v>50.655999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>61.247</v>
+      </c>
+      <c r="D71">
+        <v>224.88</v>
+      </c>
+      <c r="E71">
+        <v>143.148</v>
+      </c>
+      <c r="F71">
+        <v>151.65899999999999</v>
+      </c>
+      <c r="G71">
+        <v>439.83600000000001</v>
+      </c>
+      <c r="H71">
+        <v>6293.625</v>
+      </c>
+      <c r="I71">
+        <v>181.36099999999999</v>
+      </c>
+      <c r="J71">
+        <v>3263.8670000000002</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-11.978</v>
+      </c>
+      <c r="N71">
+        <v>257.06</v>
+      </c>
+      <c r="O71">
+        <v>3778.9740000000002</v>
+      </c>
+      <c r="P71">
+        <v>3335.4140000000002</v>
+      </c>
+      <c r="Q71">
+        <v>48.5</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2514.6509999999998</v>
+      </c>
+      <c r="U71">
+        <v>64.406999999999996</v>
+      </c>
+      <c r="V71">
+        <v>124.18</v>
+      </c>
+      <c r="W71">
+        <v>-74.924999999999997</v>
+      </c>
+      <c r="X71">
+        <v>-29.501999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>71.515000000000001</v>
+      </c>
+      <c r="Z71">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="AA71">
+        <v>61.247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>63.594999999999999</v>
+      </c>
+      <c r="D72">
+        <v>224.17400000000001</v>
+      </c>
+      <c r="E72">
+        <v>149.86099999999999</v>
+      </c>
+      <c r="F72">
+        <v>155.96199999999999</v>
+      </c>
+      <c r="G72">
+        <v>474.72399999999999</v>
+      </c>
+      <c r="H72">
+        <v>6302.7030000000004</v>
+      </c>
+      <c r="I72">
+        <v>178.66499999999999</v>
+      </c>
+      <c r="J72">
+        <v>3248.9459999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>254.44499999999999</v>
+      </c>
+      <c r="O72">
+        <v>3773.694</v>
+      </c>
+      <c r="P72">
+        <v>3320.4839999999999</v>
+      </c>
+      <c r="Q72">
+        <v>35.262</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2529.009</v>
+      </c>
+      <c r="U72">
+        <v>56.116</v>
+      </c>
+      <c r="V72">
+        <v>138.93100000000001</v>
+      </c>
+      <c r="W72">
+        <v>-74.677999999999997</v>
+      </c>
+      <c r="X72">
+        <v>-71.152000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>71.515000000000001</v>
+      </c>
+      <c r="Z72">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>63.594999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>62.558</v>
+      </c>
+      <c r="D73">
+        <v>228.31299999999999</v>
+      </c>
+      <c r="E73">
+        <v>151.40299999999999</v>
+      </c>
+      <c r="F73">
+        <v>157.31800000000001</v>
+      </c>
+      <c r="G73">
+        <v>485.35500000000002</v>
+      </c>
+      <c r="H73">
+        <v>6285.6639999999998</v>
+      </c>
+      <c r="I73">
+        <v>184.68299999999999</v>
+      </c>
+      <c r="J73">
+        <v>3185.105</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>262.50599999999997</v>
+      </c>
+      <c r="O73">
+        <v>3710.777</v>
+      </c>
+      <c r="P73">
+        <v>3256.634</v>
+      </c>
+      <c r="Q73">
+        <v>-14.161</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2574.8870000000002</v>
+      </c>
+      <c r="U73">
+        <v>41.872</v>
+      </c>
+      <c r="V73">
+        <v>101.605</v>
+      </c>
+      <c r="W73">
+        <v>-74.707999999999998</v>
+      </c>
+      <c r="X73">
+        <v>-82.688000000000002</v>
+      </c>
+      <c r="Y73">
+        <v>71.515000000000001</v>
+      </c>
+      <c r="Z73">
+        <v>37.533999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>62.558</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>54.506999999999998</v>
+      </c>
+      <c r="D74">
+        <v>234.67099999999999</v>
+      </c>
+      <c r="E74">
+        <v>142.23699999999999</v>
+      </c>
+      <c r="F74">
+        <v>167.16399999999999</v>
+      </c>
+      <c r="G74">
+        <v>456.74200000000002</v>
+      </c>
+      <c r="H74">
+        <v>6289.6440000000002</v>
+      </c>
+      <c r="I74">
+        <v>174.822</v>
+      </c>
+      <c r="J74">
+        <v>3157.6849999999999</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>256.12900000000002</v>
+      </c>
+      <c r="O74">
+        <v>3686.1060000000002</v>
+      </c>
+      <c r="P74">
+        <v>3229.2040000000002</v>
+      </c>
+      <c r="Q74">
+        <v>13.531000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>298</v>
+      </c>
+      <c r="T74">
+        <v>2603.538</v>
+      </c>
+      <c r="U74">
+        <v>64.087000000000003</v>
+      </c>
+      <c r="V74">
+        <v>151.97200000000001</v>
+      </c>
+      <c r="W74">
+        <v>-76.882999999999996</v>
+      </c>
+      <c r="X74">
+        <v>-57.966999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>71.519000000000005</v>
+      </c>
+      <c r="Z74">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="AA74">
+        <v>54.506999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>60.143999999999998</v>
+      </c>
+      <c r="D75">
+        <v>230.79300000000001</v>
+      </c>
+      <c r="E75">
+        <v>137.779</v>
+      </c>
+      <c r="F75">
+        <v>158.846</v>
+      </c>
+      <c r="G75">
+        <v>402.63099999999997</v>
+      </c>
+      <c r="H75">
+        <v>6351.366</v>
+      </c>
+      <c r="I75">
+        <v>156.029</v>
+      </c>
+      <c r="J75">
+        <v>3156.5590000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-21.718</v>
+      </c>
+      <c r="N75">
+        <v>234.57599999999999</v>
+      </c>
+      <c r="O75">
+        <v>3715.0949999999998</v>
+      </c>
+      <c r="P75">
+        <v>3303.6869999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-26.12</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2636.2710000000002</v>
+      </c>
+      <c r="U75">
+        <v>43.003</v>
+      </c>
+      <c r="V75">
+        <v>104.919</v>
+      </c>
+      <c r="W75">
+        <v>-77.296000000000006</v>
+      </c>
+      <c r="X75">
+        <v>-27.001999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>147.12799999999999</v>
+      </c>
+      <c r="Z75">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AA75">
+        <v>60.143999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>80.902000000000001</v>
+      </c>
+      <c r="D76">
+        <v>230.846</v>
+      </c>
+      <c r="E76">
+        <v>138.87</v>
+      </c>
+      <c r="F76">
+        <v>164.24199999999999</v>
+      </c>
+      <c r="G76">
+        <v>448.27100000000002</v>
+      </c>
+      <c r="H76">
+        <v>6383.741</v>
+      </c>
+      <c r="I76">
+        <v>177.078</v>
+      </c>
+      <c r="J76">
+        <v>3157.7829999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>255.886</v>
+      </c>
+      <c r="O76">
+        <v>3738.3850000000002</v>
+      </c>
+      <c r="P76">
+        <v>3304.3870000000002</v>
+      </c>
+      <c r="Q76">
+        <v>58.057000000000002</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2645.3560000000002</v>
+      </c>
+      <c r="U76">
+        <v>105.90300000000001</v>
+      </c>
+      <c r="V76">
+        <v>137.36799999999999</v>
+      </c>
+      <c r="W76">
+        <v>-77.668999999999997</v>
+      </c>
+      <c r="X76">
+        <v>-69.98</v>
+      </c>
+      <c r="Y76">
+        <v>146.60400000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>80.902000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>65.465000000000003</v>
+      </c>
+      <c r="D77">
+        <v>233.69800000000001</v>
+      </c>
+      <c r="E77">
+        <v>143.85499999999999</v>
+      </c>
+      <c r="F77">
+        <v>150.184</v>
+      </c>
+      <c r="G77">
+        <v>545.875</v>
+      </c>
+      <c r="H77">
+        <v>6607.5649999999996</v>
+      </c>
+      <c r="I77">
+        <v>221.78100000000001</v>
+      </c>
+      <c r="J77">
+        <v>3276.9110000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>303.25799999999998</v>
+      </c>
+      <c r="O77">
+        <v>3912.1619999999998</v>
+      </c>
+      <c r="P77">
+        <v>3423.0079999999998</v>
+      </c>
+      <c r="Q77">
+        <v>66.647000000000006</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2695.4029999999998</v>
+      </c>
+      <c r="U77">
+        <v>162.54300000000001</v>
+      </c>
+      <c r="V77">
+        <v>102.01900000000001</v>
+      </c>
+      <c r="W77">
+        <v>-78.02</v>
+      </c>
+      <c r="X77">
+        <v>78.525999999999996</v>
+      </c>
+      <c r="Y77">
+        <v>146.09700000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>65.465000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>147.35499999999999</v>
+      </c>
+      <c r="D78">
+        <v>238.43899999999999</v>
+      </c>
+      <c r="E78">
+        <v>152.572</v>
+      </c>
+      <c r="F78">
+        <v>169.173</v>
+      </c>
+      <c r="G78">
+        <v>491.36700000000002</v>
+      </c>
+      <c r="H78">
+        <v>6794.9920000000002</v>
+      </c>
+      <c r="I78">
+        <v>252.50299999999999</v>
+      </c>
+      <c r="J78">
+        <v>3356.5940000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>337.17899999999997</v>
+      </c>
+      <c r="O78">
+        <v>4019.1019999999999</v>
+      </c>
+      <c r="P78">
+        <v>3502.2840000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-53.302</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>308</v>
+      </c>
+      <c r="T78">
+        <v>2775.89</v>
+      </c>
+      <c r="U78">
+        <v>127.432</v>
+      </c>
+      <c r="V78">
+        <v>117.613</v>
+      </c>
+      <c r="W78">
+        <v>-80.664000000000001</v>
+      </c>
+      <c r="X78">
+        <v>-81.649000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>145.69</v>
+      </c>
+      <c r="Z78">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AA78">
+        <v>147.35499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>54.762999999999998</v>
+      </c>
+      <c r="D79">
+        <v>230.393</v>
+      </c>
+      <c r="E79">
+        <v>153.24299999999999</v>
+      </c>
+      <c r="F79">
+        <v>157.017</v>
+      </c>
+      <c r="G79">
+        <v>1364.623</v>
+      </c>
+      <c r="H79">
+        <v>7759.9139999999998</v>
+      </c>
+      <c r="I79">
+        <v>245.96799999999999</v>
+      </c>
+      <c r="J79">
+        <v>4288.8680000000004</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1.524</v>
+      </c>
+      <c r="N79">
+        <v>399.012</v>
+      </c>
+      <c r="O79">
+        <v>5000.7719999999999</v>
+      </c>
+      <c r="P79">
+        <v>4506.1540000000005</v>
+      </c>
+      <c r="Q79">
+        <v>865.81200000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2759.1419999999998</v>
+      </c>
+      <c r="U79">
+        <v>994.68799999999999</v>
+      </c>
+      <c r="V79">
+        <v>118.749</v>
+      </c>
+      <c r="W79">
+        <v>-80.897999999999996</v>
+      </c>
+      <c r="X79">
+        <v>898.89499999999998</v>
+      </c>
+      <c r="Y79">
+        <v>146.14099999999999</v>
+      </c>
+      <c r="Z79">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AA79">
+        <v>54.762999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>10.507</v>
+      </c>
+      <c r="D80">
+        <v>172.35499999999999</v>
+      </c>
+      <c r="E80">
+        <v>167.64099999999999</v>
+      </c>
+      <c r="F80">
+        <v>105.339</v>
+      </c>
+      <c r="G80">
+        <v>1353.973</v>
+      </c>
+      <c r="H80">
+        <v>7789.93</v>
+      </c>
+      <c r="I80">
+        <v>244.482</v>
+      </c>
+      <c r="J80">
+        <v>4398.3419999999996</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>396.08600000000001</v>
+      </c>
+      <c r="O80">
+        <v>5099.2460000000001</v>
+      </c>
+      <c r="P80">
+        <v>4613.6139999999996</v>
+      </c>
+      <c r="Q80">
+        <v>-18.189</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2690.6840000000002</v>
+      </c>
+      <c r="U80">
+        <v>980.03899999999999</v>
+      </c>
+      <c r="V80">
+        <v>62.633000000000003</v>
+      </c>
+      <c r="W80">
+        <v>-80.975999999999999</v>
+      </c>
+      <c r="X80">
+        <v>24.544</v>
+      </c>
+      <c r="Y80">
+        <v>145.583</v>
+      </c>
+      <c r="Z80">
+        <v>-0.78100000000000003</v>
+      </c>
+      <c r="AA80">
+        <v>10.507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-28.289000000000001</v>
+      </c>
+      <c r="D81">
+        <v>206.57599999999999</v>
+      </c>
+      <c r="E81">
+        <v>164.88200000000001</v>
+      </c>
+      <c r="F81">
+        <v>134.22399999999999</v>
+      </c>
+      <c r="G81">
+        <v>1257.1980000000001</v>
+      </c>
+      <c r="H81">
+        <v>7711.2929999999997</v>
+      </c>
+      <c r="I81">
+        <v>276.39600000000002</v>
+      </c>
+      <c r="J81">
+        <v>4398.9690000000001</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>426.709</v>
+      </c>
+      <c r="O81">
+        <v>5133.4880000000003</v>
+      </c>
+      <c r="P81">
+        <v>4611.567</v>
+      </c>
+      <c r="Q81">
+        <v>-112.798</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2577.8049999999998</v>
+      </c>
+      <c r="U81">
+        <v>863.279</v>
+      </c>
+      <c r="V81">
+        <v>87.04</v>
+      </c>
+      <c r="W81">
+        <v>-80.978999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-83.463999999999999</v>
+      </c>
+      <c r="Y81">
+        <v>144.97300000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-0.69</v>
+      </c>
+      <c r="AA81">
+        <v>-28.289000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>94.724999999999994</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>218.108</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>159.78</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>147.12200000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1165.163</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7607.6239999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>224.041</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3862.598</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>752.13400000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4921.1570000000002</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4435.8649999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-71.543000000000006</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>307</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2686.4670000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>798.32899999999995</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>101.50700000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-81.742999999999995</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-178.239</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>133.613</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-1.2889999999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>94.724999999999994</v>
       </c>
     </row>
